--- a/100runs/run068/NotionalETEOutput068.xlsx
+++ b/100runs/run068/NotionalETEOutput068.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="15">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,25 +49,16 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_SOMERSAULT_State_Update</t>
+    <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND_State_Update</t>
+    <t>MISSILE_BRAVER_65.MISSILE_BRAVER_65</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_177.MISSILE_SOMERSAULT_177</t>
+    <t>MISSILE_BRAVER_121.MISSILE_BRAVER_121</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_362.MISSILE_HIGHWIND_362</t>
-  </si>
-  <si>
-    <t>MISSILE_SOMERSAULT_52.MISSILE_SOMERSAULT_52</t>
-  </si>
-  <si>
-    <t>MISSILE_SOMERSAULT</t>
-  </si>
-  <si>
-    <t>MISSILE_HIGHWIND</t>
+    <t>MISSILE_BRAVER</t>
   </si>
 </sst>
 </file>
@@ -425,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K160"/>
+  <dimension ref="A1:K107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,31 +465,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>265.9062998624382</v>
+        <v>1116579.420783807</v>
       </c>
       <c r="G2">
-        <v>-127.8828565777357</v>
+        <v>4841126.578779922</v>
       </c>
       <c r="H2">
-        <v>899.4649679365828</v>
+        <v>3985231.33992807</v>
       </c>
       <c r="I2">
-        <v>-1662.217240935418</v>
+        <v>1114861.501676469</v>
       </c>
       <c r="J2">
-        <v>2360.140506713622</v>
+        <v>4843224.50831606</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984370.563321622</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -509,31 +500,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>265.9062998624382</v>
+        <v>1116579.420783807</v>
       </c>
       <c r="G3">
-        <v>-127.8828565777357</v>
+        <v>4841126.578779922</v>
       </c>
       <c r="H3">
-        <v>899.4649679365828</v>
+        <v>3985231.33992807</v>
       </c>
       <c r="I3">
-        <v>-1629.400646551477</v>
+        <v>1114891.115676765</v>
       </c>
       <c r="J3">
-        <v>2302.728214658588</v>
+        <v>4843175.856715431</v>
       </c>
       <c r="K3">
-        <v>389.6869903704388</v>
+        <v>3984674.359332061</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -544,31 +535,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>265.9062998624382</v>
+        <v>1116579.420783807</v>
       </c>
       <c r="G4">
-        <v>-127.8828565777357</v>
+        <v>4841126.578779922</v>
       </c>
       <c r="H4">
-        <v>899.4649679365828</v>
+        <v>3985231.33992807</v>
       </c>
       <c r="I4">
-        <v>-1595.775973721545</v>
+        <v>1114921.458894573</v>
       </c>
       <c r="J4">
-        <v>2245.315922603553</v>
+        <v>4843127.205114802</v>
       </c>
       <c r="K4">
-        <v>759.94240113997</v>
+        <v>3984963.006680869</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -579,31 +570,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>265.9062998624382</v>
+        <v>1116579.420783807</v>
       </c>
       <c r="G5">
-        <v>-127.8828565777357</v>
+        <v>4841126.578779922</v>
       </c>
       <c r="H5">
-        <v>899.4649679365828</v>
+        <v>3985231.33992807</v>
       </c>
       <c r="I5">
-        <v>-1561.323324257307</v>
+        <v>1114952.549286205</v>
       </c>
       <c r="J5">
-        <v>2187.903630548518</v>
+        <v>4843078.553514174</v>
       </c>
       <c r="K5">
-        <v>1110.766232308597</v>
+        <v>3985236.505368046</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -614,31 +605,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>265.9062998624382</v>
+        <v>1116579.420783807</v>
       </c>
       <c r="G6">
-        <v>-127.8828565777357</v>
+        <v>4841126.578779922</v>
       </c>
       <c r="H6">
-        <v>899.4649679365828</v>
+        <v>3985231.33992807</v>
       </c>
       <c r="I6">
-        <v>-1526.02230999587</v>
+        <v>1114984.405250128</v>
       </c>
       <c r="J6">
-        <v>2130.491338493483</v>
+        <v>4843029.901913546</v>
       </c>
       <c r="K6">
-        <v>1442.158483876316</v>
+        <v>3985494.855393591</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -649,31 +640,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>265.9062998624382</v>
+        <v>1116579.420783807</v>
       </c>
       <c r="G7">
-        <v>-127.8828565777357</v>
+        <v>4841126.578779922</v>
       </c>
       <c r="H7">
-        <v>899.4649679365828</v>
+        <v>3985231.33992807</v>
       </c>
       <c r="I7">
-        <v>-1489.852040734581</v>
+        <v>1115017.045637856</v>
       </c>
       <c r="J7">
-        <v>2073.079046438449</v>
+        <v>4842981.250312919</v>
       </c>
       <c r="K7">
-        <v>1754.119155843132</v>
+        <v>3985738.056757505</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -684,31 +675,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>265.9062998624382</v>
+        <v>1116579.420783807</v>
       </c>
       <c r="G8">
-        <v>-127.8828565777357</v>
+        <v>4841126.578779922</v>
       </c>
       <c r="H8">
-        <v>899.4649679365828</v>
+        <v>3985231.33992807</v>
       </c>
       <c r="I8">
-        <v>-1452.791111868771</v>
+        <v>1115050.489765103</v>
       </c>
       <c r="J8">
-        <v>2015.666754383414</v>
+        <v>4842932.59871229</v>
       </c>
       <c r="K8">
-        <v>2046.648248209041</v>
+        <v>3985966.109459787</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,31 +710,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>265.9062998624382</v>
+        <v>1116579.420783807</v>
       </c>
       <c r="G9">
-        <v>-127.8828565777357</v>
+        <v>4841126.578779922</v>
       </c>
       <c r="H9">
-        <v>899.4649679365828</v>
+        <v>3985231.33992807</v>
       </c>
       <c r="I9">
-        <v>-1414.81759172507</v>
+        <v>1115084.757423215</v>
       </c>
       <c r="J9">
-        <v>1958.254462328379</v>
+        <v>4842883.947111662</v>
       </c>
       <c r="K9">
-        <v>2319.745760974044</v>
+        <v>3986179.013500439</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -754,31 +745,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>265.9062998624382</v>
+        <v>1116579.420783807</v>
       </c>
       <c r="G10">
-        <v>-106.765797291159</v>
+        <v>4841143.091606008</v>
       </c>
       <c r="H10">
-        <v>899.4649679365828</v>
+        <v>3985231.33992807</v>
       </c>
       <c r="I10">
-        <v>-1375.909008582828</v>
+        <v>1115119.868890882</v>
       </c>
       <c r="J10">
-        <v>1900.842170273344</v>
+        <v>4842835.295511033</v>
       </c>
       <c r="K10">
-        <v>2573.41169413814</v>
+        <v>3986376.768879457</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -789,31 +780,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>206.3743083805279</v>
+        <v>1116530.74018006</v>
       </c>
       <c r="G11">
-        <v>-85.64873800458228</v>
+        <v>4841159.604432092</v>
       </c>
       <c r="H11">
-        <v>1108.134787947896</v>
+        <v>3985430.594485417</v>
       </c>
       <c r="I11">
-        <v>-1336.042337375949</v>
+        <v>1115155.84494614</v>
       </c>
       <c r="J11">
-        <v>1843.42987821831</v>
+        <v>4842786.643910405</v>
       </c>
       <c r="K11">
-        <v>2807.64604770133</v>
+        <v>3986559.375596846</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -824,31 +815,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>171.4022498319799</v>
+        <v>1116502.142767442</v>
       </c>
       <c r="G12">
-        <v>-64.53167871800559</v>
+        <v>4841176.117258178</v>
       </c>
       <c r="H12">
-        <v>1232.429204526375</v>
+        <v>3985549.280690039</v>
       </c>
       <c r="I12">
-        <v>-1295.193986067265</v>
+        <v>1115192.70687866</v>
       </c>
       <c r="J12">
-        <v>1786.017586163275</v>
+        <v>4842737.992309776</v>
       </c>
       <c r="K12">
-        <v>3022.448821663616</v>
+        <v>3986726.833652603</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -859,31 +850,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>149.3253207961101</v>
+        <v>1116484.089982585</v>
       </c>
       <c r="G13">
-        <v>-43.41461943142889</v>
+        <v>4841192.630084263</v>
       </c>
       <c r="H13">
-        <v>1321.254023316552</v>
+        <v>3985634.097698788</v>
       </c>
       <c r="I13">
-        <v>-1253.339781687398</v>
+        <v>1115230.476502356</v>
       </c>
       <c r="J13">
-        <v>1728.60529410824</v>
+        <v>4842689.340709149</v>
       </c>
       <c r="K13">
-        <v>3217.820016024996</v>
+        <v>3986879.143046727</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -894,31 +885,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>133.9289601020106</v>
+        <v>1116471.500043707</v>
       </c>
       <c r="G14">
-        <v>-22.29756014485218</v>
+        <v>4841209.142910348</v>
       </c>
       <c r="H14">
-        <v>1390.42186212053</v>
+        <v>3985700.14465806</v>
       </c>
       <c r="I14">
-        <v>-1210.45495602984</v>
+        <v>1115269.176168289</v>
       </c>
       <c r="J14">
-        <v>1671.193002053205</v>
+        <v>4842640.689108521</v>
       </c>
       <c r="K14">
-        <v>3393.759630785469</v>
+        <v>3987016.303779221</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -929,31 +920,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>122.4428139558161</v>
+        <v>1116462.107572277</v>
       </c>
       <c r="G15">
-        <v>-1.180500858275493</v>
+        <v>4841225.655736433</v>
       </c>
       <c r="H15">
-        <v>1447.075687247609</v>
+        <v>3985754.242240773</v>
       </c>
       <c r="I15">
-        <v>-1166.514130993781</v>
+        <v>1115308.828777892</v>
       </c>
       <c r="J15">
-        <v>1613.780709998171</v>
+        <v>4842592.037507893</v>
       </c>
       <c r="K15">
-        <v>3550.267665945036</v>
+        <v>3987138.315850084</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -964,31 +955,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>113.4622516622481</v>
+        <v>1116454.76397124</v>
       </c>
       <c r="G16">
-        <v>19.93655842830121</v>
+        <v>4841242.168562518</v>
       </c>
       <c r="H16">
-        <v>1495.057341601449</v>
+        <v>3985800.058944399</v>
       </c>
       <c r="I16">
-        <v>-1121.491303566026</v>
+        <v>1115349.457796526</v>
       </c>
       <c r="J16">
-        <v>1556.368417943136</v>
+        <v>4842543.385907263</v>
       </c>
       <c r="K16">
-        <v>3687.344121503698</v>
+        <v>3987245.179259315</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -999,31 +990,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>106.1963228705697</v>
+        <v>1116448.822463295</v>
       </c>
       <c r="G17">
-        <v>41.05361771487792</v>
+        <v>4841258.681388604</v>
       </c>
       <c r="H17">
-        <v>1536.672687991816</v>
+        <v>3985839.796590329</v>
       </c>
       <c r="I17">
-        <v>-1075.359830433104</v>
+        <v>1115391.087267367</v>
       </c>
       <c r="J17">
-        <v>1498.956125888101</v>
+        <v>4842494.734306635</v>
       </c>
       <c r="K17">
-        <v>3804.988997461453</v>
+        <v>3987336.894006914</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1034,31 +1025,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>100.1630129780097</v>
+        <v>1116443.888894622</v>
       </c>
       <c r="G18">
-        <v>62.17067700145461</v>
+        <v>4841275.194214689</v>
       </c>
       <c r="H18">
-        <v>1573.41492086207</v>
+        <v>3985874.880999498</v>
       </c>
       <c r="I18">
-        <v>-1028.092412214462</v>
+        <v>1115433.741825628</v>
       </c>
       <c r="J18">
-        <v>1441.543833833066</v>
+        <v>4842446.082706008</v>
       </c>
       <c r="K18">
-        <v>3903.202293818304</v>
+        <v>3987413.460092882</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1069,31 +1060,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>95.05023679423093</v>
+        <v>1116439.708066378</v>
       </c>
       <c r="G19">
-        <v>83.28773628803134</v>
+        <v>4841291.707040774</v>
       </c>
       <c r="H19">
-        <v>1606.306612879272</v>
+        <v>3985906.288605701</v>
       </c>
       <c r="I19">
-        <v>-979.6610773074123</v>
+        <v>1115477.446713146</v>
       </c>
       <c r="J19">
-        <v>1384.131541778031</v>
+        <v>4842397.43110538</v>
       </c>
       <c r="K19">
-        <v>3981.984010574248</v>
+        <v>3987474.877517218</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1104,31 +1095,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>90.64607891622278</v>
+        <v>1116436.106690728</v>
       </c>
       <c r="G20">
-        <v>104.404795574608</v>
+        <v>4841308.219866859</v>
       </c>
       <c r="H20">
-        <v>1636.078818096204</v>
+        <v>3985934.717477549</v>
       </c>
       <c r="I20">
-        <v>-930.0371653342877</v>
+        <v>1115522.227793311</v>
       </c>
       <c r="J20">
-        <v>1326.719249722997</v>
+        <v>4842348.779504751</v>
       </c>
       <c r="K20">
-        <v>4041.334147729286</v>
+        <v>3987521.146279924</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1139,31 +1130,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>86.80102151824556</v>
+        <v>1116432.962503697</v>
       </c>
       <c r="G21">
-        <v>125.5218548611847</v>
+        <v>4841324.732692945</v>
       </c>
       <c r="H21">
-        <v>1663.272328107496</v>
+        <v>3985960.684005913</v>
       </c>
       <c r="I21">
-        <v>-879.1913101819872</v>
+        <v>1115568.111566376</v>
       </c>
       <c r="J21">
-        <v>1269.306957667962</v>
+        <v>4842300.127904123</v>
       </c>
       <c r="K21">
-        <v>4081.252705283418</v>
+        <v>3987552.266380997</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1174,31 +1165,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>83.40619924992646</v>
+        <v>1116430.18648372</v>
       </c>
       <c r="G22">
-        <v>146.6389141477615</v>
+        <v>4841341.245519029</v>
       </c>
       <c r="H22">
-        <v>1688.298456609588</v>
+        <v>3985984.580945856</v>
       </c>
       <c r="I22">
-        <v>-827.09342262389</v>
+        <v>1115615.125185142</v>
       </c>
       <c r="J22">
-        <v>1211.894665612927</v>
+        <v>4842251.476303495</v>
       </c>
       <c r="K22">
-        <v>4101.739683236645</v>
+        <v>3987568.23782044</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1209,31 +1200,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>80.38023486449482</v>
+        <v>1116427.712086853</v>
       </c>
       <c r="G23">
-        <v>167.7559734343381</v>
+        <v>4841357.758345115</v>
       </c>
       <c r="H23">
-        <v>1711.477335088952</v>
+        <v>3986006.71398441</v>
       </c>
       <c r="I23">
-        <v>-773.7126725138522</v>
+        <v>1115663.296471017</v>
       </c>
       <c r="J23">
-        <v>1154.482373557893</v>
+        <v>4842202.824702866</v>
       </c>
       <c r="K23">
-        <v>4102.795081588965</v>
+        <v>3987569.06059825</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1244,31 +1235,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>77.66092797665715</v>
+        <v>1116425.488450489</v>
       </c>
       <c r="G24">
-        <v>188.8730327209149</v>
+        <v>4841374.2711712</v>
       </c>
       <c r="H24">
-        <v>1733.063019785455</v>
+        <v>3986027.325714698</v>
       </c>
       <c r="I24">
-        <v>-719.0174705417447</v>
+        <v>1115712.653930491</v>
       </c>
       <c r="J24">
-        <v>1097.070081502858</v>
+        <v>4842154.173102238</v>
       </c>
       <c r="K24">
-        <v>4084.41890034038</v>
+        <v>3987554.734714429</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1279,31 +1270,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>75.19981809508639</v>
+        <v>1116423.475947431</v>
       </c>
       <c r="G25">
-        <v>209.9900920074915</v>
+        <v>4841390.783997285</v>
       </c>
       <c r="H25">
-        <v>1753.260510948806</v>
+        <v>3986046.611887279</v>
       </c>
       <c r="I25">
-        <v>-662.9754495397367</v>
+        <v>1115763.226771996</v>
       </c>
       <c r="J25">
-        <v>1039.657789447823</v>
+        <v>4842105.52150161</v>
       </c>
       <c r="K25">
-        <v>4046.611139490889</v>
+        <v>3987525.260168978</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1314,31 +1305,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>72.95851800580606</v>
+        <v>1116421.643187619</v>
       </c>
       <c r="G26">
-        <v>231.1071512940683</v>
+        <v>4841407.29682337</v>
       </c>
       <c r="H26">
-        <v>1772.237622398833</v>
+        <v>3986064.73274415</v>
       </c>
       <c r="I26">
-        <v>-605.5534453282685</v>
+        <v>1115815.044923197</v>
       </c>
       <c r="J26">
-        <v>982.2454973927881</v>
+        <v>4842056.869900982</v>
       </c>
       <c r="K26">
-        <v>3989.371799040492</v>
+        <v>3987480.636961894</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1349,31 +1340,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>70.90617499283319</v>
+        <v>1116419.964942116</v>
       </c>
       <c r="G27">
-        <v>252.2242105806449</v>
+        <v>4841423.809649454</v>
       </c>
       <c r="H27">
-        <v>1790.133465002331</v>
+        <v>3986081.821119441</v>
       </c>
       <c r="I27">
-        <v>-546.7174770903681</v>
+        <v>1115868.1390487</v>
       </c>
       <c r="J27">
-        <v>924.8332053377533</v>
+        <v>4842008.218300353</v>
       </c>
       <c r="K27">
-        <v>3912.700878989188</v>
+        <v>3987420.86509318</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1384,31 +1375,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>69.01767197147923</v>
+        <v>1116418.420672137</v>
       </c>
       <c r="G28">
-        <v>273.3412698672217</v>
+        <v>4841440.32247554</v>
       </c>
       <c r="H28">
-        <v>1807.064640920581</v>
+        <v>3986097.98835418</v>
       </c>
       <c r="I28">
-        <v>-486.4327272627079</v>
+        <v>1115922.540568197</v>
       </c>
       <c r="J28">
-        <v>867.4209132827186</v>
+        <v>4841959.566699725</v>
       </c>
       <c r="K28">
-        <v>3816.59837933698</v>
+        <v>3987345.944562833</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1419,31 +1410,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>67.27232670441929</v>
+        <v>1116416.993465366</v>
       </c>
       <c r="G29">
-        <v>294.4583291537984</v>
+        <v>4841456.835301626</v>
       </c>
       <c r="H29">
-        <v>1823.129852108277</v>
+        <v>3986113.32869685</v>
       </c>
       <c r="I29">
-        <v>-424.6635209314938</v>
+        <v>1115978.281675063</v>
       </c>
       <c r="J29">
-        <v>810.0086212276838</v>
+        <v>4841910.915099096</v>
       </c>
       <c r="K29">
-        <v>3701.064300083865</v>
+        <v>3987255.875370856</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1454,31 +1445,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>65.65293403752622</v>
+        <v>1116415.669252774</v>
       </c>
       <c r="G30">
-        <v>315.575388440375</v>
+        <v>4841473.348127711</v>
       </c>
       <c r="H30">
-        <v>1838.413386575875</v>
+        <v>3986127.922632355</v>
       </c>
       <c r="I30">
-        <v>-361.3733047210017</v>
+        <v>1116035.395355406</v>
       </c>
       <c r="J30">
-        <v>752.5963291726489</v>
+        <v>4841862.263498469</v>
       </c>
       <c r="K30">
-        <v>3566.098641229844</v>
+        <v>3987150.657517246</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1489,31 +1480,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>64.1450492116556</v>
+        <v>1116414.436222568</v>
       </c>
       <c r="G31">
-        <v>336.6924477269517</v>
+        <v>4841489.860953796</v>
       </c>
       <c r="H31">
-        <v>1852.987795178577</v>
+        <v>3986141.839438027</v>
       </c>
       <c r="I31">
-        <v>-296.5246251622575</v>
+        <v>1116093.915407583</v>
       </c>
       <c r="J31">
-        <v>695.1840371176144</v>
+        <v>4841813.61189784</v>
       </c>
       <c r="K31">
-        <v>3411.701402774918</v>
+        <v>3987030.291002006</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1524,31 +1515,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>62.73644371601065</v>
+        <v>1116413.284375229</v>
       </c>
       <c r="G32">
-        <v>357.8095070135285</v>
+        <v>4841506.373779882</v>
       </c>
       <c r="H32">
-        <v>1866.915974499673</v>
+        <v>3986155.139172532</v>
       </c>
       <c r="I32">
-        <v>-230.0791065290706</v>
+        <v>1116153.876462207</v>
       </c>
       <c r="J32">
-        <v>637.7717450625795</v>
+        <v>4841764.960297212</v>
       </c>
       <c r="K32">
-        <v>3237.872584719085</v>
+        <v>3986894.775825134</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1559,31 +1550,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>61.41668667552846</v>
+        <v>1116412.205181204</v>
       </c>
       <c r="G33">
-        <v>378.9265663001052</v>
+        <v>4841522.886605966</v>
       </c>
       <c r="H33">
-        <v>1880.252807257837</v>
+        <v>3986167.874242258</v>
       </c>
       <c r="I33">
-        <v>-161.9974281282973</v>
+        <v>1116215.314002638</v>
       </c>
       <c r="J33">
-        <v>580.3594530075449</v>
+        <v>4841716.308696584</v>
       </c>
       <c r="K33">
-        <v>3044.612187062348</v>
+        <v>3986744.111986631</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1594,31 +1585,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>60.17681894021541</v>
+        <v>1116411.1913144</v>
       </c>
       <c r="G34">
-        <v>400.0436255866819</v>
+        <v>4841539.399432052</v>
       </c>
       <c r="H34">
-        <v>1893.046468452771</v>
+        <v>3986180.090648531</v>
       </c>
       <c r="I34">
-        <v>-92.23930103090053</v>
+        <v>1116278.264385981</v>
       </c>
       <c r="J34">
-        <v>522.94716095251</v>
+        <v>4841667.657095956</v>
       </c>
       <c r="K34">
-        <v>2831.920209804704</v>
+        <v>3986578.299486496</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1629,31 +1620,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>59.0090965646481</v>
+        <v>1116410.236442426</v>
       </c>
       <c r="G35">
-        <v>421.1606848732586</v>
+        <v>4841555.912258136</v>
       </c>
       <c r="H35">
-        <v>1905.339475792677</v>
+        <v>3986191.828990644</v>
       </c>
       <c r="I35">
-        <v>-20.76344423003085</v>
+        <v>1116342.764864601</v>
       </c>
       <c r="J35">
-        <v>465.5348688974752</v>
+        <v>4841619.005495328</v>
       </c>
       <c r="K35">
-        <v>2599.796652946153</v>
+        <v>3986397.338324729</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1664,31 +1655,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>57.9067868752309</v>
+        <v>1116409.335059827</v>
       </c>
       <c r="G36">
-        <v>442.2777441598353</v>
+        <v>4841572.425084221</v>
       </c>
       <c r="H36">
-        <v>1917.169542224219</v>
+        <v>3986203.125279922</v>
       </c>
       <c r="I36">
-        <v>52.47243978797795</v>
+        <v>1116408.853608167</v>
       </c>
       <c r="J36">
-        <v>408.1225768424405</v>
+        <v>4841570.353894699</v>
       </c>
       <c r="K36">
-        <v>2348.241516486697</v>
+        <v>3986201.228501332</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1699,31 +1690,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>56.86400484696396</v>
+        <v>1116408.482354291</v>
       </c>
       <c r="G37">
-        <v>463.394803446412</v>
+        <v>4841588.937910307</v>
       </c>
       <c r="H37">
-        <v>1928.570273685126</v>
+        <v>3986214.011605987</v>
       </c>
       <c r="I37">
-        <v>127.5116900741522</v>
+        <v>1116476.569726243</v>
       </c>
       <c r="J37">
-        <v>350.7102847874057</v>
+        <v>4841521.702294071</v>
       </c>
       <c r="K37">
-        <v>2077.254800426336</v>
+        <v>3985989.970016303</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1734,31 +1725,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>55.87558070338275</v>
+        <v>1116407.674098379</v>
       </c>
       <c r="G38">
-        <v>484.5118627329887</v>
+        <v>4841605.450736391</v>
       </c>
       <c r="H38">
-        <v>1939.571744621195</v>
+        <v>3986224.516686317</v>
       </c>
       <c r="I38">
-        <v>204.3987128637798</v>
+        <v>1116545.953291429</v>
       </c>
       <c r="J38">
-        <v>293.2979927323711</v>
+        <v>4841473.050693443</v>
       </c>
       <c r="K38">
-        <v>1786.836504765069</v>
+        <v>3985763.562869642</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1769,31 +1760,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>54.93695193664586</v>
+        <v>1116406.906561229</v>
       </c>
       <c r="G39">
-        <v>505.6289220195654</v>
+        <v>4841621.963562477</v>
       </c>
       <c r="H39">
-        <v>1950.200976096773</v>
+        <v>3986234.666322773</v>
       </c>
       <c r="I39">
-        <v>283.1790078548373</v>
+        <v>1116617.045363076</v>
       </c>
       <c r="J39">
-        <v>235.8857006773362</v>
+        <v>4841424.399092814</v>
       </c>
       <c r="K39">
-        <v>1476.986629502895</v>
+        <v>3985522.00706135</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1804,31 +1795,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>54.04407459906251</v>
+        <v>1116406.176436018</v>
       </c>
       <c r="G40">
-        <v>526.7459813061421</v>
+        <v>4841638.476388562</v>
       </c>
       <c r="H40">
-        <v>1960.482335635999</v>
+        <v>3986244.483783409</v>
       </c>
       <c r="I40">
-        <v>363.8991951335078</v>
+        <v>1116689.888011583</v>
       </c>
       <c r="J40">
-        <v>178.4734086223013</v>
+        <v>4841375.747492186</v>
       </c>
       <c r="K40">
-        <v>1147.705174639815</v>
+        <v>3985265.302591426</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1839,31 +1830,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>53.19334993019135</v>
+        <v>1116405.48077996</v>
       </c>
       <c r="G41">
-        <v>547.8630405927188</v>
+        <v>4841654.989214648</v>
       </c>
       <c r="H41">
-        <v>1970.437873684313</v>
+        <v>3986253.990123746</v>
       </c>
       <c r="I41">
-        <v>446.6070427627037</v>
+        <v>1116764.524343296</v>
       </c>
       <c r="J41">
-        <v>121.0611165672668</v>
+        <v>4841327.095891559</v>
       </c>
       <c r="K41">
-        <v>798.9921401758306</v>
+        <v>3984993.449459871</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1874,31 +1865,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>52.38156328264488</v>
+        <v>1116404.816964369</v>
       </c>
       <c r="G42">
-        <v>568.9800998792955</v>
+        <v>4841671.502040733</v>
       </c>
       <c r="H42">
-        <v>1980.087608376437</v>
+        <v>3986263.204458691</v>
       </c>
       <c r="I42">
-        <v>531.3514950499458</v>
+        <v>1116840.998526014</v>
       </c>
       <c r="J42">
-        <v>63.6488245122319</v>
+        <v>4841278.44429093</v>
       </c>
       <c r="K42">
-        <v>430.847526110939</v>
+        <v>3984706.447666685</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1909,31 +1900,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>51.60583298294234</v>
+        <v>1116404.182632837</v>
       </c>
       <c r="G43">
-        <v>590.0971591658723</v>
+        <v>4841688.014866819</v>
       </c>
       <c r="H43">
-        <v>1989.449767857969</v>
+        <v>3986272.144193931</v>
       </c>
       <c r="I43">
-        <v>618.1827015112939</v>
+        <v>1116919.355815126</v>
       </c>
       <c r="J43">
-        <v>6.236532457197029</v>
+        <v>4841229.792690301</v>
       </c>
       <c r="K43">
-        <v>43.27133244514173</v>
+        <v>3984404.297211868</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1944,31 +1935,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>50.86356727273175</v>
+        <v>1116403.575666028</v>
       </c>
       <c r="G44">
-        <v>611.2142184524489</v>
+        <v>4841704.527692903</v>
       </c>
       <c r="H44">
-        <v>1998.540997533558</v>
+        <v>3986280.825223821</v>
       </c>
       <c r="I44">
-        <v>707.1520465485069</v>
+        <v>1116999.642580394</v>
       </c>
       <c r="J44">
-        <v>-51.17575959783757</v>
+        <v>4841181.141089673</v>
       </c>
       <c r="K44">
-        <v>-363.7364408215602</v>
+        <v>3984086.998095418</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1979,31 +1970,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>50.15242786395841</v>
+        <v>1116402.994151872</v>
       </c>
       <c r="G45">
-        <v>632.3312777390256</v>
+        <v>4841721.040518988</v>
       </c>
       <c r="H45">
-        <v>2007.376538162492</v>
+        <v>3986289.262101453</v>
       </c>
       <c r="I45">
-        <v>798.312179856965</v>
+        <v>1117081.906333396</v>
       </c>
       <c r="J45">
-        <v>-108.5880516528724</v>
+        <v>4841132.489489045</v>
       </c>
       <c r="K45">
-        <v>-790.1757936891693</v>
+        <v>3983754.550317338</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2014,31 +2005,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>49.47029894021644</v>
+        <v>1116402.436360221</v>
       </c>
       <c r="G46">
-        <v>653.4483370256023</v>
+        <v>4841737.553345073</v>
       </c>
       <c r="H46">
-        <v>2015.970379588226</v>
+        <v>3986297.468185443</v>
       </c>
       <c r="I46">
-        <v>891.7170475823597</v>
+        <v>1117166.195755633</v>
       </c>
       <c r="J46">
-        <v>-166.0003437079073</v>
+        <v>4841083.837888417</v>
       </c>
       <c r="K46">
-        <v>-1236.046726157685</v>
+        <v>3983406.953877626</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2049,31 +2040,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>48.81526066808693</v>
+        <v>1116401.900721185</v>
       </c>
       <c r="G47">
-        <v>674.565396312179</v>
+        <v>4841754.066171158</v>
       </c>
       <c r="H47">
-        <v>2024.335393995907</v>
+        <v>3986305.455767178</v>
       </c>
       <c r="I47">
-        <v>987.4219242445895</v>
+        <v>1117252.560727348</v>
       </c>
       <c r="J47">
-        <v>-223.4126357629422</v>
+        <v>4841035.186287789</v>
       </c>
       <c r="K47">
-        <v>-1701.349238227106</v>
+        <v>3983044.208776283</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2084,31 +2075,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>48.18556646313343</v>
+        <v>1116401.385806543</v>
       </c>
       <c r="G48">
-        <v>695.6824555987557</v>
+        <v>4841770.578997244</v>
       </c>
       <c r="H48">
-        <v>2032.483451884667</v>
+        <v>3986313.236181556</v>
       </c>
       <c r="I48">
-        <v>1085.483445447754</v>
+        <v>1117341.052357038</v>
       </c>
       <c r="J48">
-        <v>-280.8249278179765</v>
+        <v>4840986.534687161</v>
       </c>
       <c r="K48">
-        <v>-2186.083329897429</v>
+        <v>3982666.315013308</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2119,31 +2110,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>47.57962339749933</v>
+        <v>1116400.890313724</v>
       </c>
       <c r="G49">
-        <v>716.7995148853324</v>
+        <v>4841787.091823328</v>
       </c>
       <c r="H49">
-        <v>2040.425523377355</v>
+        <v>3986320.819903723</v>
       </c>
       <c r="I49">
-        <v>1185.959641395602</v>
+        <v>1117431.723011698</v>
       </c>
       <c r="J49">
-        <v>-338.2372198730114</v>
+        <v>4840937.883086532</v>
       </c>
       <c r="K49">
-        <v>-2690.249001168662</v>
+        <v>3982273.272588701</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2154,31 +2145,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>46.9959752486984</v>
+        <v>1116400.413051943</v>
       </c>
       <c r="G50">
-        <v>737.9165741719091</v>
+        <v>4841803.604649414</v>
       </c>
       <c r="H50">
-        <v>2048.171767037503</v>
+        <v>3986328.216633886</v>
       </c>
       <c r="I50">
-        <v>1288.90997123226</v>
+        <v>1117524.626347813</v>
       </c>
       <c r="J50">
-        <v>-395.6495119280463</v>
+        <v>4840889.231485903</v>
       </c>
       <c r="K50">
-        <v>-3213.846252040801</v>
+        <v>3981865.081502463</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2189,31 +2180,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>46.43328777894542</v>
+        <v>1116399.952930165</v>
       </c>
       <c r="G51">
-        <v>759.0336334584857</v>
+        <v>4841820.117475499</v>
       </c>
       <c r="H51">
-        <v>2055.731607997756</v>
+        <v>3986335.43537191</v>
       </c>
       <c r="I51">
-        <v>1394.395358228579</v>
+        <v>1117619.817343111</v>
       </c>
       <c r="J51">
-        <v>-453.0618039830811</v>
+        <v>4840840.579885275</v>
       </c>
       <c r="K51">
-        <v>-3756.875082513846</v>
+        <v>3981441.741754594</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2224,31 +2215,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>45.89033590631441</v>
+        <v>1116399.508946615</v>
       </c>
       <c r="G52">
-        <v>780.1506927450625</v>
+        <v>4841836.630301584</v>
       </c>
       <c r="H52">
-        <v>2063.113806907098</v>
+        <v>3986342.484483161</v>
       </c>
       <c r="I52">
-        <v>1502.478225834907</v>
+        <v>1117717.352329093</v>
       </c>
       <c r="J52">
-        <v>-510.474096038116</v>
+        <v>4840791.928284648</v>
       </c>
       <c r="K52">
-        <v>-4319.335492587796</v>
+        <v>3981003.253345094</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2259,31 +2250,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>45.36599248699222</v>
+        <v>1116399.080179601</v>
       </c>
       <c r="G53">
-        <v>801.2677520316392</v>
+        <v>4841853.14312767</v>
       </c>
       <c r="H53">
-        <v>2070.326520961917</v>
+        <v>3986349.371756779</v>
       </c>
       <c r="I53">
-        <v>1613.222534621624</v>
+        <v>1117817.289024375</v>
       </c>
       <c r="J53">
-        <v>-567.8863880931503</v>
+        <v>4840743.27668402</v>
       </c>
       <c r="K53">
-        <v>-4901.227482262648</v>
+        <v>3980549.616273961</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2294,31 +2285,31 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>44.85921847488564</v>
+        <v>1116398.665779473</v>
       </c>
       <c r="G54">
-        <v>822.3848113182158</v>
+        <v>4841869.655953755</v>
       </c>
       <c r="H54">
-        <v>2077.377358087129</v>
+        <v>3986356.104457417</v>
       </c>
       <c r="I54">
-        <v>1726.693820129319</v>
+        <v>1117919.686568839</v>
       </c>
       <c r="J54">
-        <v>-625.2986801481852</v>
+        <v>4840694.625083391</v>
       </c>
       <c r="K54">
-        <v>-5502.55105153841</v>
+        <v>3980080.830541199</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2326,34 +2317,34 @@
         <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>125.3543162094689</v>
+        <v>1116579.965652947</v>
       </c>
       <c r="G55">
-        <v>-121.7452618352208</v>
+        <v>4841124.051173124</v>
       </c>
       <c r="H55">
-        <v>850.9998887659151</v>
+        <v>3985219.477225488</v>
       </c>
       <c r="I55">
-        <v>-2191.241623970998</v>
+        <v>1114861.005363641</v>
       </c>
       <c r="J55">
-        <v>1509.482838352737</v>
+        <v>4843221.177716973</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984368.276962921</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2361,34 +2352,34 @@
         <v>68</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>125.3543162094689</v>
+        <v>1116579.965652947</v>
       </c>
       <c r="G56">
-        <v>-121.7452618352208</v>
+        <v>4841124.051173124</v>
       </c>
       <c r="H56">
-        <v>850.9998887659151</v>
+        <v>3985219.477225488</v>
       </c>
       <c r="I56">
-        <v>-2147.980679612968</v>
+        <v>1114890.619350753</v>
       </c>
       <c r="J56">
-        <v>1472.763469602846</v>
+        <v>4843172.526149802</v>
       </c>
       <c r="K56">
-        <v>125.3462739423074</v>
+        <v>3984672.072799033</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2396,34 +2387,34 @@
         <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>125.3543162094689</v>
+        <v>1116579.965652947</v>
       </c>
       <c r="G57">
-        <v>-121.7452618352208</v>
+        <v>4841124.051173124</v>
       </c>
       <c r="H57">
-        <v>850.9998887659151</v>
+        <v>3985219.477225488</v>
       </c>
       <c r="I57">
-        <v>-2103.654474299462</v>
+        <v>1114920.962555053</v>
       </c>
       <c r="J57">
-        <v>1436.044100852956</v>
+        <v>4843123.87458263</v>
       </c>
       <c r="K57">
-        <v>244.4422080991585</v>
+        <v>3984960.719982206</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2431,34 +2422,34 @@
         <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>125.3543162094689</v>
+        <v>1116579.965652947</v>
       </c>
       <c r="G58">
-        <v>-121.7452618352208</v>
+        <v>4841124.051173124</v>
       </c>
       <c r="H58">
-        <v>850.9998887659151</v>
+        <v>3985219.477225488</v>
       </c>
       <c r="I58">
-        <v>-2058.236776959471</v>
+        <v>1114952.052932844</v>
       </c>
       <c r="J58">
-        <v>1399.324732103066</v>
+        <v>4843075.223015458</v>
       </c>
       <c r="K58">
-        <v>357.2878024705541</v>
+        <v>3985234.21851244</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2466,34 +2457,34 @@
         <v>68</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>125.3543162094689</v>
+        <v>1116579.965652947</v>
       </c>
       <c r="G59">
-        <v>-121.7452618352208</v>
+        <v>4841124.051173124</v>
       </c>
       <c r="H59">
-        <v>850.9998887659151</v>
+        <v>3985219.477225488</v>
       </c>
       <c r="I59">
-        <v>-2011.700710605999</v>
+        <v>1114983.908882585</v>
       </c>
       <c r="J59">
-        <v>1362.605363353176</v>
+        <v>4843026.571448287</v>
       </c>
       <c r="K59">
-        <v>463.8830570564936</v>
+        <v>3985492.568389736</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2501,34 +2492,34 @@
         <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>125.3543162094689</v>
+        <v>1116579.965652947</v>
       </c>
       <c r="G60">
-        <v>-121.7452618352208</v>
+        <v>4841124.051173124</v>
       </c>
       <c r="H60">
-        <v>850.9998887659151</v>
+        <v>3985219.477225488</v>
       </c>
       <c r="I60">
-        <v>-1964.018736430968</v>
+        <v>1115016.549255782</v>
       </c>
       <c r="J60">
-        <v>1325.885994603286</v>
+        <v>4842977.919881116</v>
       </c>
       <c r="K60">
-        <v>564.2279718569777</v>
+        <v>3985735.769614093</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2536,34 +2527,34 @@
         <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>125.3543162094689</v>
+        <v>1116579.965652947</v>
       </c>
       <c r="G61">
-        <v>-121.7452618352208</v>
+        <v>4841124.051173124</v>
       </c>
       <c r="H61">
-        <v>850.9998887659151</v>
+        <v>3985219.477225488</v>
       </c>
       <c r="I61">
-        <v>-1915.162637508489</v>
+        <v>1115049.99336814</v>
       </c>
       <c r="J61">
-        <v>1289.166625853396</v>
+        <v>4842929.268313944</v>
       </c>
       <c r="K61">
-        <v>658.3225468720058</v>
+        <v>3985963.822185511</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2571,34 +2562,34 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>125.3543162094689</v>
+        <v>1116579.965652947</v>
       </c>
       <c r="G62">
-        <v>-121.7452618352208</v>
+        <v>4841124.051173124</v>
       </c>
       <c r="H62">
-        <v>850.9998887659151</v>
+        <v>3985219.477225488</v>
       </c>
       <c r="I62">
-        <v>-1865.10350209683</v>
+        <v>1115084.261010997</v>
       </c>
       <c r="J62">
-        <v>1252.447257103506</v>
+        <v>4842880.616746773</v>
       </c>
       <c r="K62">
-        <v>746.1667821015781</v>
+        <v>3986176.726103991</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2606,34 +2597,34 @@
         <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>125.3543162094689</v>
+        <v>1116579.965652947</v>
       </c>
       <c r="G63">
-        <v>-101.6416922025594</v>
+        <v>4841140.563990588</v>
       </c>
       <c r="H63">
-        <v>850.9998887659151</v>
+        <v>3985219.477225488</v>
       </c>
       <c r="I63">
-        <v>-1813.81170652922</v>
+        <v>1115119.372463034</v>
       </c>
       <c r="J63">
-        <v>1215.727888353615</v>
+        <v>4842831.965179602</v>
       </c>
       <c r="K63">
-        <v>827.7606775456942</v>
+        <v>3986374.481369532</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2641,34 +2632,34 @@
         <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>97.28957276915391</v>
+        <v>1116531.285025446</v>
       </c>
       <c r="G64">
-        <v>-81.53812256989796</v>
+        <v>4841157.076808051</v>
       </c>
       <c r="H64">
-        <v>1048.426136533857</v>
+        <v>3985418.731189722</v>
       </c>
       <c r="I64">
-        <v>-1761.256897683344</v>
+        <v>1115155.348502276</v>
       </c>
       <c r="J64">
-        <v>1179.008519603725</v>
+        <v>4842783.31361243</v>
       </c>
       <c r="K64">
-        <v>903.1042332043544</v>
+        <v>3986557.087982135</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2676,34 +2667,34 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>80.80294387747786</v>
+        <v>1116502.687598872</v>
       </c>
       <c r="G65">
-        <v>-61.43455293723657</v>
+        <v>4841173.589625515</v>
       </c>
       <c r="H65">
-        <v>1166.023306466069</v>
+        <v>3985537.417041054</v>
       </c>
       <c r="I65">
-        <v>-1707.407975019176</v>
+        <v>1115192.210418386</v>
       </c>
       <c r="J65">
-        <v>1142.289150853835</v>
+        <v>4842734.662045258</v>
       </c>
       <c r="K65">
-        <v>972.1974490775591</v>
+        <v>3986724.545941798</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2711,34 +2702,34 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>70.39537420076049</v>
+        <v>1116484.634805206</v>
       </c>
       <c r="G66">
-        <v>-41.33098330457516</v>
+        <v>4841190.102442979</v>
       </c>
       <c r="H66">
-        <v>1250.062055727754</v>
+        <v>3985622.233797331</v>
       </c>
       <c r="I66">
-        <v>-1652.233072174502</v>
+        <v>1115229.980025268</v>
       </c>
       <c r="J66">
-        <v>1105.569782103945</v>
+        <v>4842686.010478088</v>
       </c>
       <c r="K66">
-        <v>1035.040325165308</v>
+        <v>3986876.855248523</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2746,34 +2737,34 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>63.13717735502333</v>
+        <v>1116472.044860184</v>
       </c>
       <c r="G67">
-        <v>-21.22741367191375</v>
+        <v>4841206.615260442</v>
       </c>
       <c r="H67">
-        <v>1315.502984754036</v>
+        <v>3985688.280560003</v>
       </c>
       <c r="I67">
-        <v>-1595.69953810726</v>
+        <v>1115268.679673972</v>
       </c>
       <c r="J67">
-        <v>1068.850413354055</v>
+        <v>4842637.358910916</v>
       </c>
       <c r="K67">
-        <v>1091.632861467601</v>
+        <v>3987014.01590231</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2781,34 +2772,34 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>57.72234514990782</v>
+        <v>1116462.652384171</v>
       </c>
       <c r="G68">
-        <v>-1.12384403925236</v>
+        <v>4841223.128077907</v>
       </c>
       <c r="H68">
-        <v>1369.104181687708</v>
+        <v>3985742.377981686</v>
       </c>
       <c r="I68">
-        <v>-1537.773917773508</v>
+        <v>1115308.332265922</v>
       </c>
       <c r="J68">
-        <v>1032.131044604165</v>
+        <v>4842588.707343745</v>
       </c>
       <c r="K68">
-        <v>1141.975057984438</v>
+        <v>3987136.027903158</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2816,34 +2807,34 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>53.48870252440723</v>
+        <v>1116455.30877955</v>
       </c>
       <c r="G69">
-        <v>18.97972559340905</v>
+        <v>4841239.640895369</v>
       </c>
       <c r="H69">
-        <v>1414.500482792791</v>
+        <v>3985788.194548931</v>
       </c>
       <c r="I69">
-        <v>-1478.421932329632</v>
+        <v>1115348.96126647</v>
       </c>
       <c r="J69">
-        <v>995.4116758542742</v>
+        <v>4842540.055776573</v>
       </c>
       <c r="K69">
-        <v>1186.066914715819</v>
+        <v>3987242.891251068</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2851,34 +2842,34 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>50.06337737874979</v>
+        <v>1116449.367268706</v>
       </c>
       <c r="G70">
-        <v>39.08329522607046</v>
+        <v>4841256.153712833</v>
       </c>
       <c r="H70">
-        <v>1453.873506102859</v>
+        <v>3985827.932076575</v>
       </c>
       <c r="I70">
-        <v>-1417.608458847025</v>
+        <v>1115390.590718778</v>
       </c>
       <c r="J70">
-        <v>958.6923071043842</v>
+        <v>4842491.404209401</v>
       </c>
       <c r="K70">
-        <v>1223.908431661745</v>
+        <v>3987334.605946038</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2886,34 +2877,34 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D71" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>47.21913699613027</v>
+        <v>1116444.433697626</v>
       </c>
       <c r="G71">
-        <v>59.18686485873185</v>
+        <v>4841272.666530297</v>
       </c>
       <c r="H71">
-        <v>1488.635989579372</v>
+        <v>3985863.016381309</v>
       </c>
       <c r="I71">
-        <v>-1355.29750952728</v>
+        <v>1115433.245258051</v>
       </c>
       <c r="J71">
-        <v>921.972938354494</v>
+        <v>4842442.75264223</v>
       </c>
       <c r="K71">
-        <v>1255.499608822214</v>
+        <v>3987411.17198807</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2921,34 +2912,34 @@
         <v>68</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>44.80885727435907</v>
+        <v>1116440.252867342</v>
       </c>
       <c r="G72">
-        <v>79.29043449139328</v>
+        <v>4841289.17934776</v>
       </c>
       <c r="H72">
-        <v>1519.755407506424</v>
+        <v>3985894.423894022</v>
       </c>
       <c r="I72">
-        <v>-1291.452210405557</v>
+        <v>1115476.950126111</v>
       </c>
       <c r="J72">
-        <v>885.2535696046037</v>
+        <v>4842394.10107506</v>
       </c>
       <c r="K72">
-        <v>1280.840446197228</v>
+        <v>3987472.589377163</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2956,34 +2947,34 @@
         <v>68</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D73" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>42.7326364418257</v>
+        <v>1116436.651489935</v>
       </c>
       <c r="G73">
-        <v>99.39400412405467</v>
+        <v>4841305.692165224</v>
       </c>
       <c r="H73">
-        <v>1547.923423194737</v>
+        <v>3985922.852681247</v>
       </c>
       <c r="I73">
-        <v>-1226.03477952956</v>
+        <v>1115521.731186341</v>
       </c>
       <c r="J73">
-        <v>848.5342008547136</v>
+        <v>4842345.449507887</v>
       </c>
       <c r="K73">
-        <v>1299.930943786786</v>
+        <v>3987518.858113318</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2991,34 +2982,34 @@
         <v>68</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D74" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>40.91998837309268</v>
+        <v>1116433.507301369</v>
       </c>
       <c r="G74">
-        <v>119.4975737567161</v>
+        <v>4841322.204982688</v>
       </c>
       <c r="H74">
-        <v>1573.651689241443</v>
+        <v>3985948.819132318</v>
       </c>
       <c r="I74">
-        <v>-1159.006504601175</v>
+        <v>1115567.61493898</v>
       </c>
       <c r="J74">
-        <v>811.8148321048234</v>
+        <v>4842296.797940716</v>
       </c>
       <c r="K74">
-        <v>1312.771101590888</v>
+        <v>3987549.978196534</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3026,34 +3017,34 @@
         <v>68</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D75" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>39.31959145012406</v>
+        <v>1116430.731280037</v>
       </c>
       <c r="G75">
-        <v>139.6011433893775</v>
+        <v>4841338.717800152</v>
       </c>
       <c r="H75">
-        <v>1597.329356889109</v>
+        <v>3985972.716001128</v>
       </c>
       <c r="I75">
-        <v>-1090.32772006756</v>
+        <v>1115614.628536816</v>
       </c>
       <c r="J75">
-        <v>775.0954633549334</v>
+        <v>4842248.146373545</v>
       </c>
       <c r="K75">
-        <v>1319.360919609534</v>
+        <v>3987565.949626811</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3061,34 +3052,34 @@
         <v>68</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D76" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>37.89308257611008</v>
+        <v>1116428.256881963</v>
       </c>
       <c r="G76">
-        <v>159.7047130220389</v>
+        <v>4841355.230617615</v>
       </c>
       <c r="H76">
-        <v>1619.259308261099</v>
+        <v>3985994.848973799</v>
       </c>
       <c r="I76">
-        <v>-1019.957783648128</v>
+        <v>1115662.799801246</v>
       </c>
       <c r="J76">
-        <v>738.3760946050431</v>
+        <v>4842199.494806373</v>
       </c>
       <c r="K76">
-        <v>1319.700397842725</v>
+        <v>3987566.77240415</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3096,34 +3087,34 @@
         <v>68</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>36.61113906568954</v>
+        <v>1116426.033244514</v>
       </c>
       <c r="G77">
-        <v>179.8082826547003</v>
+        <v>4841371.743435079</v>
       </c>
       <c r="H77">
-        <v>1639.681910508523</v>
+        <v>3986015.460642732</v>
       </c>
       <c r="I77">
-        <v>-947.8550522835218</v>
+        <v>1115712.157238747</v>
       </c>
       <c r="J77">
-        <v>701.6567258551529</v>
+        <v>4842150.843239202</v>
       </c>
       <c r="K77">
-        <v>1313.789536290459</v>
+        <v>3987552.44652855</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3131,34 +3122,34 @@
         <v>68</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D78" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>35.45091553401589</v>
+        <v>1116424.020740474</v>
       </c>
       <c r="G78">
-        <v>199.9118522873617</v>
+        <v>4841388.256252542</v>
       </c>
       <c r="H78">
-        <v>1658.791118033072</v>
+        <v>3986034.746757905</v>
       </c>
       <c r="I78">
-        <v>-873.9768574923585</v>
+        <v>1115762.730057738</v>
       </c>
       <c r="J78">
-        <v>664.9373571052628</v>
+        <v>4842102.191672031</v>
       </c>
       <c r="K78">
-        <v>1301.628334952738</v>
+        <v>3987522.972000011</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3166,34 +3157,34 @@
         <v>68</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D79" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>34.39431536975764</v>
+        <v>1116422.187979767</v>
       </c>
       <c r="G79">
-        <v>220.0154219200231</v>
+        <v>4841404.769070006</v>
       </c>
       <c r="H79">
-        <v>1676.745702490228</v>
+        <v>3986052.867560836</v>
       </c>
       <c r="I79">
-        <v>-798.2794801211561</v>
+        <v>1115814.548185871</v>
       </c>
       <c r="J79">
-        <v>628.2179883553725</v>
+        <v>4842053.54010486</v>
       </c>
       <c r="K79">
-        <v>1283.216793829561</v>
+        <v>3987478.348818534</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3201,34 +3192,34 @@
         <v>68</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>33.42679389639807</v>
+        <v>1116420.509733446</v>
       </c>
       <c r="G80">
-        <v>240.1189915526845</v>
+        <v>4841421.281887469</v>
       </c>
       <c r="H80">
-        <v>1693.677279158397</v>
+        <v>3986069.955885261</v>
       </c>
       <c r="I80">
-        <v>-720.7181244724982</v>
+        <v>1115867.642287737</v>
       </c>
       <c r="J80">
-        <v>591.4986196054823</v>
+        <v>4842004.888537687</v>
       </c>
       <c r="K80">
-        <v>1258.554912920928</v>
+        <v>3987418.576984118</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3236,34 +3227,34 @@
         <v>68</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D81" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>32.53651034529828</v>
+        <v>1116418.965462713</v>
       </c>
       <c r="G81">
-        <v>260.2225611853459</v>
+        <v>4841437.794704934</v>
       </c>
       <c r="H81">
-        <v>1709.696167427231</v>
+        <v>3986086.123071875</v>
       </c>
       <c r="I81">
-        <v>-641.2468917961312</v>
+        <v>1115922.043783016</v>
       </c>
       <c r="J81">
-        <v>554.7792508555922</v>
+        <v>4841956.236970516</v>
       </c>
       <c r="K81">
-        <v>1227.642692226839</v>
+        <v>3987343.656496764</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3271,34 +3262,34 @@
         <v>68</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D82" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>31.71371463637781</v>
+        <v>1116417.538255245</v>
       </c>
       <c r="G82">
-        <v>280.3261308180074</v>
+        <v>4841454.307522397</v>
       </c>
       <c r="H82">
-        <v>1724.895750980877</v>
+        <v>3986101.463368882</v>
       </c>
       <c r="I82">
-        <v>-559.8187531273012</v>
+        <v>1115977.784865068</v>
       </c>
       <c r="J82">
-        <v>518.0598821057019</v>
+        <v>4841907.585403346</v>
       </c>
       <c r="K82">
-        <v>1190.480131747294</v>
+        <v>3987253.587356471</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3306,34 +3297,34 @@
         <v>68</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>30.95029586616429</v>
+        <v>1116416.214042007</v>
       </c>
       <c r="G83">
-        <v>300.4297004506687</v>
+        <v>4841470.82033986</v>
       </c>
       <c r="H83">
-        <v>1739.355776213114</v>
+        <v>3986116.057260946</v>
       </c>
       <c r="I83">
-        <v>-476.3855214562655</v>
+        <v>1116034.898519984</v>
       </c>
       <c r="J83">
-        <v>481.3405133558118</v>
+        <v>4841858.933836174</v>
       </c>
       <c r="K83">
-        <v>1147.067231482293</v>
+        <v>3987148.369563239</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3341,34 +3332,34 @@
         <v>68</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>30.23944444456416</v>
+        <v>1116414.9810112</v>
       </c>
       <c r="G84">
-        <v>320.5332700833301</v>
+        <v>4841487.333157324</v>
       </c>
       <c r="H84">
-        <v>1753.14488478527</v>
+        <v>3986129.974025192</v>
       </c>
       <c r="I84">
-        <v>-390.8978232124965</v>
+        <v>1116093.418546109</v>
       </c>
       <c r="J84">
-        <v>444.6211446059217</v>
+        <v>4841810.282269002</v>
       </c>
       <c r="K84">
-        <v>1097.403991431837</v>
+        <v>3987028.003117069</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3376,34 +3367,34 @@
         <v>68</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>29.57539557168367</v>
+        <v>1116413.829163299</v>
       </c>
       <c r="G85">
-        <v>340.6368397159916</v>
+        <v>4841503.845974788</v>
       </c>
       <c r="H85">
-        <v>1766.3225842794</v>
+        <v>3986143.273720108</v>
       </c>
       <c r="I85">
-        <v>-303.3050690467149</v>
+        <v>1116153.37957404</v>
       </c>
       <c r="J85">
-        <v>407.9017758560315</v>
+        <v>4841761.630701831</v>
       </c>
       <c r="K85">
-        <v>1041.490411595925</v>
+        <v>3986892.48801796</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3411,34 +3402,34 @@
         <v>68</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>28.95323189426098</v>
+        <v>1116412.749968747</v>
       </c>
       <c r="G86">
-        <v>360.7404093486529</v>
+        <v>4841520.358792251</v>
       </c>
       <c r="H86">
-        <v>1778.940800216951</v>
+        <v>3986156.008751927</v>
       </c>
       <c r="I86">
-        <v>-213.5554238934567</v>
+        <v>1116214.817087121</v>
       </c>
       <c r="J86">
-        <v>371.1824071061414</v>
+        <v>4841712.979134659</v>
       </c>
       <c r="K86">
-        <v>979.3264919745571</v>
+        <v>3986741.824265912</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3446,34 +3437,34 @@
         <v>68</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>28.36872986391888</v>
+        <v>1116411.736101448</v>
       </c>
       <c r="G87">
-        <v>380.8439789813144</v>
+        <v>4841536.871609715</v>
       </c>
       <c r="H87">
-        <v>1791.045111826523</v>
+        <v>3986168.225121836</v>
       </c>
       <c r="I87">
-        <v>-121.5957762964589</v>
+        <v>1116277.76744244</v>
       </c>
       <c r="J87">
-        <v>334.4630383562511</v>
+        <v>4841664.327567488</v>
       </c>
       <c r="K87">
-        <v>910.9122325677332</v>
+        <v>3986576.011860925</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3481,34 +3472,34 @@
         <v>68</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>27.81823880752998</v>
+        <v>1116410.781229008</v>
       </c>
       <c r="G88">
-        <v>400.9475486139758</v>
+        <v>4841553.384427179</v>
       </c>
       <c r="H88">
-        <v>1802.675745872068</v>
+        <v>3986179.963429008</v>
       </c>
       <c r="I88">
-        <v>-27.37170697870999</v>
+        <v>1116342.267892345</v>
       </c>
       <c r="J88">
-        <v>297.7436696063609</v>
+        <v>4841615.676000317</v>
       </c>
       <c r="K88">
-        <v>836.2476333754533</v>
+        <v>3986395.050803</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3516,34 +3507,34 @@
         <v>68</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D89" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>27.29858478865397</v>
+        <v>1116409.879845969</v>
       </c>
       <c r="G89">
-        <v>421.0511182466372</v>
+        <v>4841569.897244642</v>
       </c>
       <c r="H89">
-        <v>1813.868383246741</v>
+        <v>3986191.25968466</v>
       </c>
       <c r="I89">
-        <v>69.17254336143451</v>
+        <v>1116408.35660649</v>
       </c>
       <c r="J89">
-        <v>261.0243008564708</v>
+        <v>4841567.024433145</v>
       </c>
       <c r="K89">
-        <v>755.3326943977179</v>
+        <v>3986198.941092137</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3551,34 +3542,34 @@
         <v>68</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D90" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>26.80699347180082</v>
+        <v>1116409.027140017</v>
       </c>
       <c r="G90">
-        <v>441.1546878792985</v>
+        <v>4841586.410062106</v>
       </c>
       <c r="H90">
-        <v>1824.654819129106</v>
+        <v>3986202.14597832</v>
       </c>
       <c r="I90">
-        <v>168.0941070471232</v>
+        <v>1116476.07269442</v>
       </c>
       <c r="J90">
-        <v>224.3049321065806</v>
+        <v>4841518.372865974</v>
       </c>
       <c r="K90">
-        <v>668.1674156345265</v>
+        <v>3985987.682728334</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3586,34 +3577,34 @@
         <v>68</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D91" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>26.3410277060117</v>
+        <v>1116408.218883711</v>
       </c>
       <c r="G91">
-        <v>461.25825751196</v>
+        <v>4841602.922879569</v>
       </c>
       <c r="H91">
-        <v>1835.06350749007</v>
+        <v>3986212.65102738</v>
       </c>
       <c r="I91">
-        <v>269.4515232324031</v>
+        <v>1116545.456228718</v>
       </c>
       <c r="J91">
-        <v>187.5855633566905</v>
+        <v>4841469.721298803</v>
       </c>
       <c r="K91">
-        <v>574.7517970858795</v>
+        <v>3985761.275711594</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3621,34 +3612,34 @@
         <v>68</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>25.89853662065678</v>
+        <v>1116407.451346186</v>
       </c>
       <c r="G92">
-        <v>481.3618271446214</v>
+        <v>4841619.435697033</v>
       </c>
       <c r="H92">
-        <v>1845.120013441752</v>
+        <v>3986222.800633624</v>
       </c>
       <c r="I92">
-        <v>373.3047725441313</v>
+        <v>1116616.548268716</v>
       </c>
       <c r="J92">
-        <v>150.8661946068003</v>
+        <v>4841421.06973163</v>
       </c>
       <c r="K92">
-        <v>475.0858387517761</v>
+        <v>3985519.720041914</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3656,34 +3647,34 @@
         <v>68</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D93" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>25.47761380623082</v>
+        <v>1116406.721220619</v>
       </c>
       <c r="G93">
-        <v>501.4653967772828</v>
+        <v>4841635.948514497</v>
       </c>
       <c r="H93">
-        <v>1854.847391534437</v>
+        <v>3986232.618065037</v>
       </c>
       <c r="I93">
-        <v>479.7153125769243</v>
+        <v>1116689.390884795</v>
       </c>
       <c r="J93">
-        <v>114.14682585691</v>
+        <v>4841372.41816446</v>
       </c>
       <c r="K93">
-        <v>369.1695406322171</v>
+        <v>3985263.015719296</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3691,34 +3682,34 @@
         <v>68</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>25.07656272468803</v>
+        <v>1116406.025564221</v>
       </c>
       <c r="G94">
-        <v>521.5689664099442</v>
+        <v>4841652.46133196</v>
       </c>
       <c r="H94">
-        <v>1864.266504088821</v>
+        <v>3986242.124377076</v>
       </c>
       <c r="I94">
-        <v>588.7461142621214</v>
+        <v>1116764.027183282</v>
       </c>
       <c r="J94">
-        <v>77.42745710701996</v>
+        <v>4841323.766597289</v>
       </c>
       <c r="K94">
-        <v>257.0029027272025</v>
+        <v>3984991.162743739</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3726,34 +3717,34 @@
         <v>68</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>24.69386791766838</v>
+        <v>1116405.361748307</v>
       </c>
       <c r="G95">
-        <v>541.6725360426055</v>
+        <v>4841668.974149425</v>
       </c>
       <c r="H95">
-        <v>1873.396290620093</v>
+        <v>3986251.338684594</v>
       </c>
       <c r="I95">
-        <v>700.4616991323206</v>
+        <v>1116840.501331955</v>
       </c>
       <c r="J95">
-        <v>40.70808835712972</v>
+        <v>4841275.115030117</v>
       </c>
       <c r="K95">
-        <v>138.5859250367317</v>
+        <v>3984704.161115243</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3761,34 +3752,34 @@
         <v>68</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>24.32817089833306</v>
+        <v>1116404.727416465</v>
       </c>
       <c r="G96">
-        <v>561.7761056752671</v>
+        <v>4841685.486966888</v>
       </c>
       <c r="H96">
-        <v>1882.253997102725</v>
+        <v>3986260.278393222</v>
       </c>
       <c r="I96">
-        <v>814.928177503494</v>
+        <v>1116918.858586184</v>
       </c>
       <c r="J96">
-        <v>3.988719607239477</v>
+        <v>4841226.463462945</v>
       </c>
       <c r="K96">
-        <v>13.91860756080515</v>
+        <v>3984402.010833809</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3796,34 +3787,34 @@
         <v>68</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D97" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>23.97824985247096</v>
+        <v>1116404.12044936</v>
       </c>
       <c r="G97">
-        <v>581.8796753079284</v>
+        <v>4841701.999784351</v>
       </c>
       <c r="H97">
-        <v>1890.855372051679</v>
+        <v>3986268.959397272</v>
       </c>
       <c r="I97">
-        <v>932.2132875973274</v>
+        <v>1116999.14531571</v>
       </c>
       <c r="J97">
-        <v>-32.73064914265059</v>
+        <v>4841177.811895774</v>
       </c>
       <c r="K97">
-        <v>-116.9990497005769</v>
+        <v>3984084.711899436</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3831,34 +3822,34 @@
         <v>68</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>23.64300245757094</v>
+        <v>1116403.53893492</v>
       </c>
       <c r="G98">
-        <v>601.9832449405898</v>
+        <v>4841718.512601815</v>
       </c>
       <c r="H98">
-        <v>1899.214835021825</v>
+        <v>3986277.396249791</v>
       </c>
       <c r="I98">
-        <v>1052.386435626899</v>
+        <v>1117081.40903209</v>
       </c>
       <c r="J98">
-        <v>-69.45001789254083</v>
+        <v>4841129.160328602</v>
       </c>
       <c r="K98">
-        <v>-254.1670467474151</v>
+        <v>3983752.264312125</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3866,34 +3857,34 @@
         <v>68</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D99" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>23.32143126934933</v>
+        <v>1116402.981142997</v>
       </c>
       <c r="G99">
-        <v>622.0868145732512</v>
+        <v>4841735.025419278</v>
       </c>
       <c r="H99">
-        <v>1907.345622054198</v>
+        <v>3986285.602309354</v>
       </c>
       <c r="I99">
-        <v>1175.518736869431</v>
+        <v>1117165.698416803</v>
       </c>
       <c r="J99">
-        <v>-106.1693866424311</v>
+        <v>4841080.508761431</v>
       </c>
       <c r="K99">
-        <v>-397.5853835797095</v>
+        <v>3983404.668071875</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3901,34 +3892,34 @@
         <v>68</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D100" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>23.01263123438849</v>
+        <v>1116402.445503699</v>
       </c>
       <c r="G100">
-        <v>642.1903842059127</v>
+        <v>4841751.538236742</v>
       </c>
       <c r="H100">
-        <v>1915.259911753319</v>
+        <v>3986293.589867313</v>
       </c>
       <c r="I100">
-        <v>1301.68305775042</v>
+        <v>1117252.063350071</v>
       </c>
       <c r="J100">
-        <v>-142.8887553923213</v>
+        <v>4841031.85719426</v>
       </c>
       <c r="K100">
-        <v>-547.2540601974596</v>
+        <v>3983041.923178686</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3936,34 +3927,34 @@
         <v>68</v>
       </c>
       <c r="B101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D101" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>22.7157789728067</v>
+        <v>1116401.930588806</v>
       </c>
       <c r="G101">
-        <v>662.293953838574</v>
+        <v>4841768.051054206</v>
       </c>
       <c r="H101">
-        <v>1922.968935010667</v>
+        <v>3986301.370258531</v>
       </c>
       <c r="I101">
-        <v>1430.954058964056</v>
+        <v>1117340.554940365</v>
       </c>
       <c r="J101">
-        <v>-179.6081241422112</v>
+        <v>4840983.205627088</v>
       </c>
       <c r="K101">
-        <v>-703.1730766006643</v>
+        <v>3982664.029632559</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3971,34 +3962,34 @@
         <v>68</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D102" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>22.43012354195107</v>
+        <v>1116401.435095745</v>
       </c>
       <c r="G102">
-        <v>682.3975234712354</v>
+        <v>4841784.56387167</v>
       </c>
       <c r="H102">
-        <v>1930.483070855617</v>
+        <v>3986308.953958124</v>
       </c>
       <c r="I102">
-        <v>1563.408239655439</v>
+        <v>1117431.225554661</v>
       </c>
       <c r="J102">
-        <v>-216.3274928921014</v>
+        <v>4840934.554059917</v>
       </c>
       <c r="K102">
-        <v>-865.3424327893258</v>
+        <v>3982270.987433493</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4006,34 +3997,34 @@
         <v>68</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D103" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>22.15497844520943</v>
+        <v>1116400.957833732</v>
       </c>
       <c r="G103">
-        <v>702.5010931038969</v>
+        <v>4841801.076689133</v>
       </c>
       <c r="H103">
-        <v>1937.811930486762</v>
+        <v>3986316.350666269</v>
       </c>
       <c r="I103">
-        <v>1699.123982690734</v>
+        <v>1117524.128849417</v>
       </c>
       <c r="J103">
-        <v>-253.0468616419917</v>
+        <v>4840885.902492745</v>
       </c>
       <c r="K103">
-        <v>-1033.762128763444</v>
+        <v>3981862.796581488</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4041,34 +4032,34 @@
         <v>68</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>21.88971469234982</v>
+        <v>1116400.497711729</v>
       </c>
       <c r="G104">
-        <v>722.6046627365582</v>
+        <v>4841817.589506597</v>
       </c>
       <c r="H104">
-        <v>1944.964431190621</v>
+        <v>3986323.569382805</v>
       </c>
       <c r="I104">
-        <v>1838.181601042079</v>
+        <v>1117619.319802338</v>
       </c>
       <c r="J104">
-        <v>-289.7662303918819</v>
+        <v>4840837.250925574</v>
       </c>
       <c r="K104">
-        <v>-1208.432164523017</v>
+        <v>3981439.457076545</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4076,34 +4067,34 @@
         <v>68</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D105" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>21.63375475171088</v>
+        <v>1116400.053727962</v>
       </c>
       <c r="G105">
-        <v>742.7082323692197</v>
+        <v>4841834.10232406</v>
       </c>
       <c r="H105">
-        <v>1951.948861573841</v>
+        <v>3986330.618473073</v>
       </c>
       <c r="I105">
-        <v>1980.663385314665</v>
+        <v>1117716.8547449</v>
       </c>
       <c r="J105">
-        <v>-326.4855991417722</v>
+        <v>4840788.599358403</v>
       </c>
       <c r="K105">
-        <v>-1389.352540068046</v>
+        <v>3981000.968918663</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4111,34 +4102,34 @@
         <v>68</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D106" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>21.38656726189935</v>
+        <v>1116399.624960739</v>
       </c>
       <c r="G106">
-        <v>762.811802001881</v>
+        <v>4841850.615141524</v>
       </c>
       <c r="H106">
-        <v>1958.772939305775</v>
+        <v>3986337.50572619</v>
       </c>
       <c r="I106">
-        <v>2126.653652444121</v>
+        <v>1117816.791395692</v>
       </c>
       <c r="J106">
-        <v>-363.2049678916621</v>
+        <v>4840739.947791232</v>
       </c>
       <c r="K106">
-        <v>-1576.52325539853</v>
+        <v>3980547.332107842</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4146,1889 +4137,34 @@
         <v>68</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D107" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>21.14766239280369</v>
+        <v>1116399.210560409</v>
       </c>
       <c r="G107">
-        <v>782.9153716345425</v>
+        <v>4841867.127958988</v>
       </c>
       <c r="H107">
-        <v>1965.443862380219</v>
+        <v>3986344.238406787</v>
       </c>
       <c r="I107">
-        <v>2276.23879559306</v>
+        <v>1117919.18889457</v>
       </c>
       <c r="J107">
-        <v>-399.9243366415523</v>
+        <v>4840691.29622406</v>
       </c>
       <c r="K107">
-        <v>-1769.944310514471</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="A108">
-        <v>68</v>
-      </c>
-      <c r="B108" t="s">
-        <v>11</v>
-      </c>
-      <c r="C108" t="s">
-        <v>15</v>
-      </c>
-      <c r="D108" t="s">
-        <v>16</v>
-      </c>
-      <c r="E108">
-        <v>152.142</v>
-      </c>
-      <c r="F108">
-        <v>333.8935585439549</v>
-      </c>
-      <c r="G108">
-        <v>-73.67970863782716</v>
-      </c>
-      <c r="H108">
-        <v>951.5540735087199</v>
-      </c>
-      <c r="I108">
-        <v>-2047.803215089361</v>
-      </c>
-      <c r="J108">
-        <v>1318.325304508618</v>
-      </c>
-      <c r="K108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
-      <c r="A109">
-        <v>68</v>
-      </c>
-      <c r="B109" t="s">
-        <v>11</v>
-      </c>
-      <c r="C109" t="s">
-        <v>15</v>
-      </c>
-      <c r="D109" t="s">
-        <v>16</v>
-      </c>
-      <c r="E109">
-        <v>153.142</v>
-      </c>
-      <c r="F109">
-        <v>333.8935585439549</v>
-      </c>
-      <c r="G109">
-        <v>-73.67970863782716</v>
-      </c>
-      <c r="H109">
-        <v>951.5540735087199</v>
-      </c>
-      <c r="I109">
-        <v>-2007.374126861459</v>
-      </c>
-      <c r="J109">
-        <v>1286.255994571057</v>
-      </c>
-      <c r="K109">
-        <v>212.4274993202737</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
-      <c r="A110">
-        <v>68</v>
-      </c>
-      <c r="B110" t="s">
-        <v>11</v>
-      </c>
-      <c r="C110" t="s">
-        <v>15</v>
-      </c>
-      <c r="D110" t="s">
-        <v>16</v>
-      </c>
-      <c r="E110">
-        <v>154.142</v>
-      </c>
-      <c r="F110">
-        <v>333.8935585439549</v>
-      </c>
-      <c r="G110">
-        <v>-73.67970863782716</v>
-      </c>
-      <c r="H110">
-        <v>951.5540735087199</v>
-      </c>
-      <c r="I110">
-        <v>-1965.949509530025</v>
-      </c>
-      <c r="J110">
-        <v>1254.186684633496</v>
-      </c>
-      <c r="K110">
-        <v>414.2623897917385</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
-      <c r="A111">
-        <v>68</v>
-      </c>
-      <c r="B111" t="s">
-        <v>11</v>
-      </c>
-      <c r="C111" t="s">
-        <v>15</v>
-      </c>
-      <c r="D111" t="s">
-        <v>16</v>
-      </c>
-      <c r="E111">
-        <v>155.142</v>
-      </c>
-      <c r="F111">
-        <v>333.8935585439549</v>
-      </c>
-      <c r="G111">
-        <v>-73.67970863782716</v>
-      </c>
-      <c r="H111">
-        <v>951.5540735087199</v>
-      </c>
-      <c r="I111">
-        <v>-1923.504849106753</v>
-      </c>
-      <c r="J111">
-        <v>1222.117374695935</v>
-      </c>
-      <c r="K111">
-        <v>605.5046714143959</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
-      <c r="A112">
-        <v>68</v>
-      </c>
-      <c r="B112" t="s">
-        <v>11</v>
-      </c>
-      <c r="C112" t="s">
-        <v>15</v>
-      </c>
-      <c r="D112" t="s">
-        <v>16</v>
-      </c>
-      <c r="E112">
-        <v>156.142</v>
-      </c>
-      <c r="F112">
-        <v>333.8935585439549</v>
-      </c>
-      <c r="G112">
-        <v>-73.67970863782716</v>
-      </c>
-      <c r="H112">
-        <v>951.5540735087199</v>
-      </c>
-      <c r="I112">
-        <v>-1880.015027968929</v>
-      </c>
-      <c r="J112">
-        <v>1190.048064758374</v>
-      </c>
-      <c r="K112">
-        <v>786.1543441882447</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
-      <c r="A113">
-        <v>68</v>
-      </c>
-      <c r="B113" t="s">
-        <v>11</v>
-      </c>
-      <c r="C113" t="s">
-        <v>15</v>
-      </c>
-      <c r="D113" t="s">
-        <v>16</v>
-      </c>
-      <c r="E113">
-        <v>157.142</v>
-      </c>
-      <c r="F113">
-        <v>333.8935585439549</v>
-      </c>
-      <c r="G113">
-        <v>-73.67970863782716</v>
-      </c>
-      <c r="H113">
-        <v>951.5540735087199</v>
-      </c>
-      <c r="I113">
-        <v>-1835.454309995488</v>
-      </c>
-      <c r="J113">
-        <v>1157.978754820813</v>
-      </c>
-      <c r="K113">
-        <v>956.2114081132864</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
-      <c r="A114">
-        <v>68</v>
-      </c>
-      <c r="B114" t="s">
-        <v>11</v>
-      </c>
-      <c r="C114" t="s">
-        <v>15</v>
-      </c>
-      <c r="D114" t="s">
-        <v>16</v>
-      </c>
-      <c r="E114">
-        <v>158.142</v>
-      </c>
-      <c r="F114">
-        <v>333.8935585439549</v>
-      </c>
-      <c r="G114">
-        <v>-73.67970863782716</v>
-      </c>
-      <c r="H114">
-        <v>951.5540735087199</v>
-      </c>
-      <c r="I114">
-        <v>-1789.79632533706</v>
-      </c>
-      <c r="J114">
-        <v>1125.909444883252</v>
-      </c>
-      <c r="K114">
-        <v>1115.67586318952</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
-      <c r="A115">
-        <v>68</v>
-      </c>
-      <c r="B115" t="s">
-        <v>11</v>
-      </c>
-      <c r="C115" t="s">
-        <v>15</v>
-      </c>
-      <c r="D115" t="s">
-        <v>16</v>
-      </c>
-      <c r="E115">
-        <v>159.142</v>
-      </c>
-      <c r="F115">
-        <v>333.8935585439549</v>
-      </c>
-      <c r="G115">
-        <v>-73.67970863782716</v>
-      </c>
-      <c r="H115">
-        <v>951.5540735087199</v>
-      </c>
-      <c r="I115">
-        <v>-1743.014054810994</v>
-      </c>
-      <c r="J115">
-        <v>1093.840134945691</v>
-      </c>
-      <c r="K115">
-        <v>1264.547709416945</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
-      <c r="A116">
-        <v>68</v>
-      </c>
-      <c r="B116" t="s">
-        <v>11</v>
-      </c>
-      <c r="C116" t="s">
-        <v>15</v>
-      </c>
-      <c r="D116" t="s">
-        <v>16</v>
-      </c>
-      <c r="E116">
-        <v>160.142</v>
-      </c>
-      <c r="F116">
-        <v>333.8935585439549</v>
-      </c>
-      <c r="G116">
-        <v>-61.51311479436766</v>
-      </c>
-      <c r="H116">
-        <v>951.5540735087199</v>
-      </c>
-      <c r="I116">
-        <v>-1695.079813912124</v>
-      </c>
-      <c r="J116">
-        <v>1061.77082500813</v>
-      </c>
-      <c r="K116">
-        <v>1402.826946795562</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
-      <c r="A117">
-        <v>68</v>
-      </c>
-      <c r="B117" t="s">
-        <v>11</v>
-      </c>
-      <c r="C117" t="s">
-        <v>15</v>
-      </c>
-      <c r="D117" t="s">
-        <v>16</v>
-      </c>
-      <c r="E117">
-        <v>161.142</v>
-      </c>
-      <c r="F117">
-        <v>259.1403522702163</v>
-      </c>
-      <c r="G117">
-        <v>-49.34652095090816</v>
-      </c>
-      <c r="H117">
-        <v>1172.30821550227</v>
-      </c>
-      <c r="I117">
-        <v>-1645.965236429811</v>
-      </c>
-      <c r="J117">
-        <v>1029.701515070569</v>
-      </c>
-      <c r="K117">
-        <v>1530.513575325371</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
-      <c r="A118">
-        <v>68</v>
-      </c>
-      <c r="B118" t="s">
-        <v>11</v>
-      </c>
-      <c r="C118" t="s">
-        <v>15</v>
-      </c>
-      <c r="D118" t="s">
-        <v>16</v>
-      </c>
-      <c r="E118">
-        <v>162.142</v>
-      </c>
-      <c r="F118">
-        <v>215.22659361003</v>
-      </c>
-      <c r="G118">
-        <v>-37.17992710744866</v>
-      </c>
-      <c r="H118">
-        <v>1303.800672269058</v>
-      </c>
-      <c r="I118">
-        <v>-1595.64125766158</v>
-      </c>
-      <c r="J118">
-        <v>997.6322051330083</v>
-      </c>
-      <c r="K118">
-        <v>1647.607595006372</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
-      <c r="A119">
-        <v>68</v>
-      </c>
-      <c r="B119" t="s">
-        <v>11</v>
-      </c>
-      <c r="C119" t="s">
-        <v>15</v>
-      </c>
-      <c r="D119" t="s">
-        <v>16</v>
-      </c>
-      <c r="E119">
-        <v>163.142</v>
-      </c>
-      <c r="F119">
-        <v>187.5050074673837</v>
-      </c>
-      <c r="G119">
-        <v>-25.01333326398915</v>
-      </c>
-      <c r="H119">
-        <v>1397.769443884881</v>
-      </c>
-      <c r="I119">
-        <v>-1544.078097213391</v>
-      </c>
-      <c r="J119">
-        <v>965.5628951954473</v>
-      </c>
-      <c r="K119">
-        <v>1754.109005838565</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
-      <c r="A120">
-        <v>68</v>
-      </c>
-      <c r="B120" t="s">
-        <v>11</v>
-      </c>
-      <c r="C120" t="s">
-        <v>15</v>
-      </c>
-      <c r="D120" t="s">
-        <v>16</v>
-      </c>
-      <c r="E120">
-        <v>164.142</v>
-      </c>
-      <c r="F120">
-        <v>168.1720858200266</v>
-      </c>
-      <c r="G120">
-        <v>-12.84673942052965</v>
-      </c>
-      <c r="H120">
-        <v>1470.942875998316</v>
-      </c>
-      <c r="I120">
-        <v>-1491.245241376404</v>
-      </c>
-      <c r="J120">
-        <v>933.4935852578861</v>
-      </c>
-      <c r="K120">
-        <v>1850.017807821951</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
-      <c r="A121">
-        <v>68</v>
-      </c>
-      <c r="B121" t="s">
-        <v>11</v>
-      </c>
-      <c r="C121" t="s">
-        <v>15</v>
-      </c>
-      <c r="D121" t="s">
-        <v>16</v>
-      </c>
-      <c r="E121">
-        <v>165.142</v>
-      </c>
-      <c r="F121">
-        <v>153.7491473161519</v>
-      </c>
-      <c r="G121">
-        <v>-0.6801455770701496</v>
-      </c>
-      <c r="H121">
-        <v>1530.877592747977</v>
-      </c>
-      <c r="I121">
-        <v>-1437.111425069768</v>
-      </c>
-      <c r="J121">
-        <v>901.4242753203253</v>
-      </c>
-      <c r="K121">
-        <v>1935.334000956527</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
-      <c r="A122">
-        <v>68</v>
-      </c>
-      <c r="B122" t="s">
-        <v>11</v>
-      </c>
-      <c r="C122" t="s">
-        <v>15</v>
-      </c>
-      <c r="D122" t="s">
-        <v>16</v>
-      </c>
-      <c r="E122">
-        <v>166.142</v>
-      </c>
-      <c r="F122">
-        <v>142.4724235097722</v>
-      </c>
-      <c r="G122">
-        <v>11.48644826638936</v>
-      </c>
-      <c r="H122">
-        <v>1581.637922812665</v>
-      </c>
-      <c r="I122">
-        <v>-1381.644613338779</v>
-      </c>
-      <c r="J122">
-        <v>869.3549653827642</v>
-      </c>
-      <c r="K122">
-        <v>2010.057585242296</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
-      <c r="A123">
-        <v>68</v>
-      </c>
-      <c r="B123" t="s">
-        <v>11</v>
-      </c>
-      <c r="C123" t="s">
-        <v>15</v>
-      </c>
-      <c r="D123" t="s">
-        <v>16</v>
-      </c>
-      <c r="E123">
-        <v>167.142</v>
-      </c>
-      <c r="F123">
-        <v>133.3487328652273</v>
-      </c>
-      <c r="G123">
-        <v>23.65304210984887</v>
-      </c>
-      <c r="H123">
-        <v>1625.663264309924</v>
-      </c>
-      <c r="I123">
-        <v>-1324.811982397444</v>
-      </c>
-      <c r="J123">
-        <v>837.2856554452034</v>
-      </c>
-      <c r="K123">
-        <v>2074.188560679257</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
-      <c r="A124">
-        <v>68</v>
-      </c>
-      <c r="B124" t="s">
-        <v>11</v>
-      </c>
-      <c r="C124" t="s">
-        <v>15</v>
-      </c>
-      <c r="D124" t="s">
-        <v>16</v>
-      </c>
-      <c r="E124">
-        <v>168.142</v>
-      </c>
-      <c r="F124">
-        <v>125.7728186771564</v>
-      </c>
-      <c r="G124">
-        <v>35.81963595330836</v>
-      </c>
-      <c r="H124">
-        <v>1664.533284381636</v>
-      </c>
-      <c r="I124">
-        <v>-1266.579900204242</v>
-      </c>
-      <c r="J124">
-        <v>805.2163455076422</v>
-      </c>
-      <c r="K124">
-        <v>2127.72692726741</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
-      <c r="A125">
-        <v>68</v>
-      </c>
-      <c r="B125" t="s">
-        <v>11</v>
-      </c>
-      <c r="C125" t="s">
-        <v>15</v>
-      </c>
-      <c r="D125" t="s">
-        <v>16</v>
-      </c>
-      <c r="E125">
-        <v>169.142</v>
-      </c>
-      <c r="F125">
-        <v>119.3528014194839</v>
-      </c>
-      <c r="G125">
-        <v>47.98622979676788</v>
-      </c>
-      <c r="H125">
-        <v>1699.329774116375</v>
-      </c>
-      <c r="I125">
-        <v>-1206.913906559565</v>
-      </c>
-      <c r="J125">
-        <v>773.1470355700812</v>
-      </c>
-      <c r="K125">
-        <v>2170.672685006755</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
-      <c r="A126">
-        <v>68</v>
-      </c>
-      <c r="B126" t="s">
-        <v>11</v>
-      </c>
-      <c r="C126" t="s">
-        <v>15</v>
-      </c>
-      <c r="D126" t="s">
-        <v>16</v>
-      </c>
-      <c r="E126">
-        <v>170.142</v>
-      </c>
-      <c r="F126">
-        <v>113.8225828912343</v>
-      </c>
-      <c r="G126">
-        <v>60.15282364022737</v>
-      </c>
-      <c r="H126">
-        <v>1730.826123792449</v>
-      </c>
-      <c r="I126">
-        <v>-1145.778692713095</v>
-      </c>
-      <c r="J126">
-        <v>741.0777256325202</v>
-      </c>
-      <c r="K126">
-        <v>2203.025833897292</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
-      <c r="A127">
-        <v>68</v>
-      </c>
-      <c r="B127" t="s">
-        <v>11</v>
-      </c>
-      <c r="C127" t="s">
-        <v>15</v>
-      </c>
-      <c r="D127" t="s">
-        <v>16</v>
-      </c>
-      <c r="E127">
-        <v>171.142</v>
-      </c>
-      <c r="F127">
-        <v>108.9944163600896</v>
-      </c>
-      <c r="G127">
-        <v>72.31941748368686</v>
-      </c>
-      <c r="H127">
-        <v>1759.594442900647</v>
-      </c>
-      <c r="I127">
-        <v>-1083.138080469021</v>
-      </c>
-      <c r="J127">
-        <v>709.0084156949592</v>
-      </c>
-      <c r="K127">
-        <v>2224.786373939021</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
-      <c r="A128">
-        <v>68</v>
-      </c>
-      <c r="B128" t="s">
-        <v>11</v>
-      </c>
-      <c r="C128" t="s">
-        <v>15</v>
-      </c>
-      <c r="D128" t="s">
-        <v>16</v>
-      </c>
-      <c r="E128">
-        <v>172.142</v>
-      </c>
-      <c r="F128">
-        <v>104.7316016453584</v>
-      </c>
-      <c r="G128">
-        <v>84.48601132714639</v>
-      </c>
-      <c r="H128">
-        <v>1786.069864811684</v>
-      </c>
-      <c r="I128">
-        <v>-1018.955000776744</v>
-      </c>
-      <c r="J128">
-        <v>676.9391057573984</v>
-      </c>
-      <c r="K128">
-        <v>2235.954305131942</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
-      <c r="A129">
-        <v>68</v>
-      </c>
-      <c r="B129" t="s">
-        <v>11</v>
-      </c>
-      <c r="C129" t="s">
-        <v>15</v>
-      </c>
-      <c r="D129" t="s">
-        <v>16</v>
-      </c>
-      <c r="E129">
-        <v>173.142</v>
-      </c>
-      <c r="F129">
-        <v>100.9319548630079</v>
-      </c>
-      <c r="G129">
-        <v>96.65260517060588</v>
-      </c>
-      <c r="H129">
-        <v>1810.591060214102</v>
-      </c>
-      <c r="I129">
-        <v>-953.1914717943946</v>
-      </c>
-      <c r="J129">
-        <v>644.8697958198372</v>
-      </c>
-      <c r="K129">
-        <v>2236.529627476054</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
-      <c r="A130">
-        <v>68</v>
-      </c>
-      <c r="B130" t="s">
-        <v>11</v>
-      </c>
-      <c r="C130" t="s">
-        <v>15</v>
-      </c>
-      <c r="D130" t="s">
-        <v>16</v>
-      </c>
-      <c r="E130">
-        <v>174.142</v>
-      </c>
-      <c r="F130">
-        <v>97.51737215465188</v>
-      </c>
-      <c r="G130">
-        <v>108.8191990140654</v>
-      </c>
-      <c r="H130">
-        <v>1833.426798052289</v>
-      </c>
-      <c r="I130">
-        <v>-885.8085764121927</v>
-      </c>
-      <c r="J130">
-        <v>612.8004858822762</v>
-      </c>
-      <c r="K130">
-        <v>2226.512340971359</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
-      <c r="A131">
-        <v>68</v>
-      </c>
-      <c r="B131" t="s">
-        <v>11</v>
-      </c>
-      <c r="C131" t="s">
-        <v>15</v>
-      </c>
-      <c r="D131" t="s">
-        <v>16</v>
-      </c>
-      <c r="E131">
-        <v>175.142</v>
-      </c>
-      <c r="F131">
-        <v>94.42700258931826</v>
-      </c>
-      <c r="G131">
-        <v>120.9857928575249</v>
-      </c>
-      <c r="H131">
-        <v>1854.793950388674</v>
-      </c>
-      <c r="I131">
-        <v>-816.7664392223303</v>
-      </c>
-      <c r="J131">
-        <v>580.7311759447153</v>
-      </c>
-      <c r="K131">
-        <v>2205.902445617856</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
-      <c r="A132">
-        <v>68</v>
-      </c>
-      <c r="B132" t="s">
-        <v>11</v>
-      </c>
-      <c r="C132" t="s">
-        <v>15</v>
-      </c>
-      <c r="D132" t="s">
-        <v>16</v>
-      </c>
-      <c r="E132">
-        <v>176.142</v>
-      </c>
-      <c r="F132">
-        <v>91.61264406166457</v>
-      </c>
-      <c r="G132">
-        <v>133.1523867009844</v>
-      </c>
-      <c r="H132">
-        <v>1874.87004934462</v>
-      </c>
-      <c r="I132">
-        <v>-746.0242029217694</v>
-      </c>
-      <c r="J132">
-        <v>548.6618660071542</v>
-      </c>
-      <c r="K132">
-        <v>2174.699941415545</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
-      <c r="A133">
-        <v>68</v>
-      </c>
-      <c r="B133" t="s">
-        <v>11</v>
-      </c>
-      <c r="C133" t="s">
-        <v>15</v>
-      </c>
-      <c r="D133" t="s">
-        <v>16</v>
-      </c>
-      <c r="E133">
-        <v>177.142</v>
-      </c>
-      <c r="F133">
-        <v>89.03555539430751</v>
-      </c>
-      <c r="G133">
-        <v>145.3189805444439</v>
-      </c>
-      <c r="H133">
-        <v>1893.802261865687</v>
-      </c>
-      <c r="I133">
-        <v>-673.5400041339715</v>
-      </c>
-      <c r="J133">
-        <v>516.5925560695932</v>
-      </c>
-      <c r="K133">
-        <v>2132.904828364425</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
-      <c r="A134">
-        <v>68</v>
-      </c>
-      <c r="B134" t="s">
-        <v>11</v>
-      </c>
-      <c r="C134" t="s">
-        <v>15</v>
-      </c>
-      <c r="D134" t="s">
-        <v>16</v>
-      </c>
-      <c r="E134">
-        <v>178.142</v>
-      </c>
-      <c r="F134">
-        <v>86.66419753461375</v>
-      </c>
-      <c r="G134">
-        <v>157.4855743879034</v>
-      </c>
-      <c r="H134">
-        <v>1911.713942685521</v>
-      </c>
-      <c r="I134">
-        <v>-599.2709486352645</v>
-      </c>
-      <c r="J134">
-        <v>484.5232461320323</v>
-      </c>
-      <c r="K134">
-        <v>2080.517106464498</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
-      <c r="A135">
-        <v>68</v>
-      </c>
-      <c r="B135" t="s">
-        <v>11</v>
-      </c>
-      <c r="C135" t="s">
-        <v>15</v>
-      </c>
-      <c r="D135" t="s">
-        <v>16</v>
-      </c>
-      <c r="E135">
-        <v>179.142</v>
-      </c>
-      <c r="F135">
-        <v>84.47260018469019</v>
-      </c>
-      <c r="G135">
-        <v>169.6521682313629</v>
-      </c>
-      <c r="H135">
-        <v>1928.709509708547</v>
-      </c>
-      <c r="I135">
-        <v>-523.1730859711791</v>
-      </c>
-      <c r="J135">
-        <v>452.4539361944712</v>
-      </c>
-      <c r="K135">
-        <v>2017.536775715763</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
-      <c r="A136">
-        <v>68</v>
-      </c>
-      <c r="B136" t="s">
-        <v>11</v>
-      </c>
-      <c r="C136" t="s">
-        <v>15</v>
-      </c>
-      <c r="D136" t="s">
-        <v>16</v>
-      </c>
-      <c r="E136">
-        <v>180.142</v>
-      </c>
-      <c r="F136">
-        <v>82.4391591548664</v>
-      </c>
-      <c r="G136">
-        <v>181.8187620748224</v>
-      </c>
-      <c r="H136">
-        <v>1944.87813216598</v>
-      </c>
-      <c r="I136">
-        <v>-445.2013834477408</v>
-      </c>
-      <c r="J136">
-        <v>420.3846262569102</v>
-      </c>
-      <c r="K136">
-        <v>1943.963836118219</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
-      <c r="A137">
-        <v>68</v>
-      </c>
-      <c r="B137" t="s">
-        <v>11</v>
-      </c>
-      <c r="C137" t="s">
-        <v>15</v>
-      </c>
-      <c r="D137" t="s">
-        <v>16</v>
-      </c>
-      <c r="E137">
-        <v>181.142</v>
-      </c>
-      <c r="F137">
-        <v>80.5457364317311</v>
-      </c>
-      <c r="G137">
-        <v>193.9853559182819</v>
-      </c>
-      <c r="H137">
-        <v>1960.296562420909</v>
-      </c>
-      <c r="I137">
-        <v>-365.309699482314</v>
-      </c>
-      <c r="J137">
-        <v>388.3153163193492</v>
-      </c>
-      <c r="K137">
-        <v>1859.798287671868</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
-      <c r="A138">
-        <v>68</v>
-      </c>
-      <c r="B138" t="s">
-        <v>11</v>
-      </c>
-      <c r="C138" t="s">
-        <v>15</v>
-      </c>
-      <c r="D138" t="s">
-        <v>16</v>
-      </c>
-      <c r="E138">
-        <v>182.142</v>
-      </c>
-      <c r="F138">
-        <v>78.77697690339808</v>
-      </c>
-      <c r="G138">
-        <v>206.1519497617414</v>
-      </c>
-      <c r="H138">
-        <v>1975.031339473931</v>
-      </c>
-      <c r="I138">
-        <v>-283.4507562982403</v>
-      </c>
-      <c r="J138">
-        <v>356.2460063817882</v>
-      </c>
-      <c r="K138">
-        <v>1765.040130376708</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
-      <c r="A139">
-        <v>68</v>
-      </c>
-      <c r="B139" t="s">
-        <v>11</v>
-      </c>
-      <c r="C139" t="s">
-        <v>15</v>
-      </c>
-      <c r="D139" t="s">
-        <v>16</v>
-      </c>
-      <c r="E139">
-        <v>183.142</v>
-      </c>
-      <c r="F139">
-        <v>77.11978271549052</v>
-      </c>
-      <c r="G139">
-        <v>218.3185436052009</v>
-      </c>
-      <c r="H139">
-        <v>1989.140524368423</v>
-      </c>
-      <c r="I139">
-        <v>-199.576111947105</v>
-      </c>
-      <c r="J139">
-        <v>324.1766964442273</v>
-      </c>
-      <c r="K139">
-        <v>1659.689364232741</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
-      <c r="A140">
-        <v>68</v>
-      </c>
-      <c r="B140" t="s">
-        <v>11</v>
-      </c>
-      <c r="C140" t="s">
-        <v>15</v>
-      </c>
-      <c r="D140" t="s">
-        <v>16</v>
-      </c>
-      <c r="E140">
-        <v>184.142</v>
-      </c>
-      <c r="F140">
-        <v>75.56290403122588</v>
-      </c>
-      <c r="G140">
-        <v>230.4851374486604</v>
-      </c>
-      <c r="H140">
-        <v>2002.675081976661</v>
-      </c>
-      <c r="I140">
-        <v>-113.6361316420809</v>
-      </c>
-      <c r="J140">
-        <v>292.1073865066662</v>
-      </c>
-      <c r="K140">
-        <v>1543.745989239966</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
-      <c r="A141">
-        <v>68</v>
-      </c>
-      <c r="B141" t="s">
-        <v>11</v>
-      </c>
-      <c r="C141" t="s">
-        <v>15</v>
-      </c>
-      <c r="D141" t="s">
-        <v>16</v>
-      </c>
-      <c r="E141">
-        <v>185.142</v>
-      </c>
-      <c r="F141">
-        <v>74.09661692343163</v>
-      </c>
-      <c r="G141">
-        <v>242.6517312921199</v>
-      </c>
-      <c r="H141">
-        <v>2015.67999225882</v>
-      </c>
-      <c r="I141">
-        <v>-25.579958385378</v>
-      </c>
-      <c r="J141">
-        <v>260.0380765691052</v>
-      </c>
-      <c r="K141">
-        <v>1417.210005398382</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
-      <c r="A142">
-        <v>68</v>
-      </c>
-      <c r="B142" t="s">
-        <v>11</v>
-      </c>
-      <c r="C142" t="s">
-        <v>15</v>
-      </c>
-      <c r="D142" t="s">
-        <v>16</v>
-      </c>
-      <c r="E142">
-        <v>186.142</v>
-      </c>
-      <c r="F142">
-        <v>72.71246730002143</v>
-      </c>
-      <c r="G142">
-        <v>254.8183251355795</v>
-      </c>
-      <c r="H142">
-        <v>2028.195152163976</v>
-      </c>
-      <c r="I142">
-        <v>64.64451712757747</v>
-      </c>
-      <c r="J142">
-        <v>227.9687666315442</v>
-      </c>
-      <c r="K142">
-        <v>1280.081412707991</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11">
-      <c r="A143">
-        <v>68</v>
-      </c>
-      <c r="B143" t="s">
-        <v>11</v>
-      </c>
-      <c r="C143" t="s">
-        <v>15</v>
-      </c>
-      <c r="D143" t="s">
-        <v>16</v>
-      </c>
-      <c r="E143">
-        <v>187.142</v>
-      </c>
-      <c r="F143">
-        <v>71.40306544536865</v>
-      </c>
-      <c r="G143">
-        <v>266.9849189790389</v>
-      </c>
-      <c r="H143">
-        <v>2040.25611379041</v>
-      </c>
-      <c r="I143">
-        <v>157.0906873450439</v>
-      </c>
-      <c r="J143">
-        <v>195.8994566939832</v>
-      </c>
-      <c r="K143">
-        <v>1132.360211168791</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
-      <c r="A144">
-        <v>68</v>
-      </c>
-      <c r="B144" t="s">
-        <v>11</v>
-      </c>
-      <c r="C144" t="s">
-        <v>15</v>
-      </c>
-      <c r="D144" t="s">
-        <v>16</v>
-      </c>
-      <c r="E144">
-        <v>188.142</v>
-      </c>
-      <c r="F144">
-        <v>70.1619197680311</v>
-      </c>
-      <c r="G144">
-        <v>279.1515128224984</v>
-      </c>
-      <c r="H144">
-        <v>2051.894693231497</v>
-      </c>
-      <c r="I144">
-        <v>251.8132594551991</v>
-      </c>
-      <c r="J144">
-        <v>163.8301467564223</v>
-      </c>
-      <c r="K144">
-        <v>974.0464007807841</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
-      <c r="A145">
-        <v>68</v>
-      </c>
-      <c r="B145" t="s">
-        <v>11</v>
-      </c>
-      <c r="C145" t="s">
-        <v>15</v>
-      </c>
-      <c r="D145" t="s">
-        <v>16</v>
-      </c>
-      <c r="E145">
-        <v>189.142</v>
-      </c>
-      <c r="F145">
-        <v>68.9833012123984</v>
-      </c>
-      <c r="G145">
-        <v>291.3181066659579</v>
-      </c>
-      <c r="H145">
-        <v>2063.139476374142</v>
-      </c>
-      <c r="I145">
-        <v>348.8682877603975</v>
-      </c>
-      <c r="J145">
-        <v>131.7608368188612</v>
-      </c>
-      <c r="K145">
-        <v>805.139981543968</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
-      <c r="A146">
-        <v>68</v>
-      </c>
-      <c r="B146" t="s">
-        <v>11</v>
-      </c>
-      <c r="C146" t="s">
-        <v>15</v>
-      </c>
-      <c r="D146" t="s">
-        <v>16</v>
-      </c>
-      <c r="E146">
-        <v>190.142</v>
-      </c>
-      <c r="F146">
-        <v>67.86213186912526</v>
-      </c>
-      <c r="G146">
-        <v>303.4847005094175</v>
-      </c>
-      <c r="H146">
-        <v>2074.016241895318</v>
-      </c>
-      <c r="I146">
-        <v>448.3132068486235</v>
-      </c>
-      <c r="J146">
-        <v>99.69152688130016</v>
-      </c>
-      <c r="K146">
-        <v>625.6409534583444</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
-      <c r="A147">
-        <v>68</v>
-      </c>
-      <c r="B147" t="s">
-        <v>11</v>
-      </c>
-      <c r="C147" t="s">
-        <v>15</v>
-      </c>
-      <c r="D147" t="s">
-        <v>16</v>
-      </c>
-      <c r="E147">
-        <v>191.142</v>
-      </c>
-      <c r="F147">
-        <v>66.79389284215422</v>
-      </c>
-      <c r="G147">
-        <v>315.651294352877</v>
-      </c>
-      <c r="H147">
-        <v>2084.548317208463</v>
-      </c>
-      <c r="I147">
-        <v>550.2068655817475</v>
-      </c>
-      <c r="J147">
-        <v>67.62221694373926</v>
-      </c>
-      <c r="K147">
-        <v>435.549316523913</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
-      <c r="A148">
-        <v>68</v>
-      </c>
-      <c r="B148" t="s">
-        <v>11</v>
-      </c>
-      <c r="C148" t="s">
-        <v>15</v>
-      </c>
-      <c r="D148" t="s">
-        <v>16</v>
-      </c>
-      <c r="E148">
-        <v>192.142</v>
-      </c>
-      <c r="F148">
-        <v>65.77454755899254</v>
-      </c>
-      <c r="G148">
-        <v>327.8178881963364</v>
-      </c>
-      <c r="H148">
-        <v>2094.756879722726</v>
-      </c>
-      <c r="I148">
-        <v>654.6095619207297</v>
-      </c>
-      <c r="J148">
-        <v>35.5529070061782</v>
-      </c>
-      <c r="K148">
-        <v>234.8650707406731</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
-      <c r="A149">
-        <v>68</v>
-      </c>
-      <c r="B149" t="s">
-        <v>11</v>
-      </c>
-      <c r="C149" t="s">
-        <v>15</v>
-      </c>
-      <c r="D149" t="s">
-        <v>16</v>
-      </c>
-      <c r="E149">
-        <v>193.142</v>
-      </c>
-      <c r="F149">
-        <v>64.80047755624327</v>
-      </c>
-      <c r="G149">
-        <v>339.984482039796</v>
-      </c>
-      <c r="H149">
-        <v>2104.661213197688</v>
-      </c>
-      <c r="I149">
-        <v>761.583078608339</v>
-      </c>
-      <c r="J149">
-        <v>3.483597068617144</v>
-      </c>
-      <c r="K149">
-        <v>23.58821610862527</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11">
-      <c r="A150">
-        <v>68</v>
-      </c>
-      <c r="B150" t="s">
-        <v>11</v>
-      </c>
-      <c r="C150" t="s">
-        <v>15</v>
-      </c>
-      <c r="D150" t="s">
-        <v>16</v>
-      </c>
-      <c r="E150">
-        <v>194.142</v>
-      </c>
-      <c r="F150">
-        <v>63.86842841150475</v>
-      </c>
-      <c r="G150">
-        <v>352.1510758832555</v>
-      </c>
-      <c r="H150">
-        <v>2114.278926993541</v>
-      </c>
-      <c r="I150">
-        <v>871.1907197305489</v>
-      </c>
-      <c r="J150">
-        <v>-28.58571286894377</v>
-      </c>
-      <c r="K150">
-        <v>-198.28124737223</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
-      <c r="A151">
-        <v>68</v>
-      </c>
-      <c r="B151" t="s">
-        <v>11</v>
-      </c>
-      <c r="C151" t="s">
-        <v>15</v>
-      </c>
-      <c r="D151" t="s">
-        <v>16</v>
-      </c>
-      <c r="E151">
-        <v>195.142</v>
-      </c>
-      <c r="F151">
-        <v>62.97546398027837</v>
-      </c>
-      <c r="G151">
-        <v>364.3176697267149</v>
-      </c>
-      <c r="H151">
-        <v>2123.626144480399</v>
-      </c>
-      <c r="I151">
-        <v>983.4973481782132</v>
-      </c>
-      <c r="J151">
-        <v>-60.65502280650482</v>
-      </c>
-      <c r="K151">
-        <v>-430.7433197018938</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11">
-      <c r="A152">
-        <v>68</v>
-      </c>
-      <c r="B152" t="s">
-        <v>11</v>
-      </c>
-      <c r="C152" t="s">
-        <v>15</v>
-      </c>
-      <c r="D152" t="s">
-        <v>16</v>
-      </c>
-      <c r="E152">
-        <v>196.142</v>
-      </c>
-      <c r="F152">
-        <v>62.11892747154657</v>
-      </c>
-      <c r="G152">
-        <v>376.4842635701745</v>
-      </c>
-      <c r="H152">
-        <v>2132.717665670497</v>
-      </c>
-      <c r="I152">
-        <v>1098.569424031198</v>
-      </c>
-      <c r="J152">
-        <v>-92.72433274406588</v>
-      </c>
-      <c r="K152">
-        <v>-673.7980008803663</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11">
-      <c r="A153">
-        <v>68</v>
-      </c>
-      <c r="B153" t="s">
-        <v>11</v>
-      </c>
-      <c r="C153" t="s">
-        <v>15</v>
-      </c>
-      <c r="D153" t="s">
-        <v>16</v>
-      </c>
-      <c r="E153">
-        <v>197.142</v>
-      </c>
-      <c r="F153">
-        <v>61.29640818645647</v>
-      </c>
-      <c r="G153">
-        <v>388.650857413634</v>
-      </c>
-      <c r="H153">
-        <v>2141.567108192808</v>
-      </c>
-      <c r="I153">
-        <v>1216.475043887694</v>
-      </c>
-      <c r="J153">
-        <v>-124.7936426816269</v>
-      </c>
-      <c r="K153">
-        <v>-927.4452909076464</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11">
-      <c r="A154">
-        <v>68</v>
-      </c>
-      <c r="B154" t="s">
-        <v>11</v>
-      </c>
-      <c r="C154" t="s">
-        <v>15</v>
-      </c>
-      <c r="D154" t="s">
-        <v>16</v>
-      </c>
-      <c r="E154">
-        <v>198.142</v>
-      </c>
-      <c r="F154">
-        <v>60.50571297165637</v>
-      </c>
-      <c r="G154">
-        <v>400.8174512570935</v>
-      </c>
-      <c r="H154">
-        <v>2150.187029981448</v>
-      </c>
-      <c r="I154">
-        <v>1337.283981161974</v>
-      </c>
-      <c r="J154">
-        <v>-156.8629526191877</v>
-      </c>
-      <c r="K154">
-        <v>-1191.685189783733</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11">
-      <c r="A155">
-        <v>68</v>
-      </c>
-      <c r="B155" t="s">
-        <v>11</v>
-      </c>
-      <c r="C155" t="s">
-        <v>15</v>
-      </c>
-      <c r="D155" t="s">
-        <v>16</v>
-      </c>
-      <c r="E155">
-        <v>199.142</v>
-      </c>
-      <c r="F155">
-        <v>59.74484161748284</v>
-      </c>
-      <c r="G155">
-        <v>412.984045100553</v>
-      </c>
-      <c r="H155">
-        <v>2158.589036452363</v>
-      </c>
-      <c r="I155">
-        <v>1461.067727374451</v>
-      </c>
-      <c r="J155">
-        <v>-188.9322625567488</v>
-      </c>
-      <c r="K155">
-        <v>-1466.517697508629</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11">
-      <c r="A156">
-        <v>68</v>
-      </c>
-      <c r="B156" t="s">
-        <v>11</v>
-      </c>
-      <c r="C156" t="s">
-        <v>15</v>
-      </c>
-      <c r="D156" t="s">
-        <v>16</v>
-      </c>
-      <c r="E156">
-        <v>200.142</v>
-      </c>
-      <c r="F156">
-        <v>59.01196557264468</v>
-      </c>
-      <c r="G156">
-        <v>425.1506389440125</v>
-      </c>
-      <c r="H156">
-        <v>2166.783874463803</v>
-      </c>
-      <c r="I156">
-        <v>1587.89953445845</v>
-      </c>
-      <c r="J156">
-        <v>-221.0015724943098</v>
-      </c>
-      <c r="K156">
-        <v>-1751.942814082333</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11">
-      <c r="A157">
-        <v>68</v>
-      </c>
-      <c r="B157" t="s">
-        <v>11</v>
-      </c>
-      <c r="C157" t="s">
-        <v>15</v>
-      </c>
-      <c r="D157" t="s">
-        <v>16</v>
-      </c>
-      <c r="E157">
-        <v>201.142</v>
-      </c>
-      <c r="F157">
-        <v>58.30540945975412</v>
-      </c>
-      <c r="G157">
-        <v>437.3172327874719</v>
-      </c>
-      <c r="H157">
-        <v>2174.781514969257</v>
-      </c>
-      <c r="I157">
-        <v>1717.85445810877</v>
-      </c>
-      <c r="J157">
-        <v>-253.0708824318709</v>
-      </c>
-      <c r="K157">
-        <v>-2047.960539504845</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11">
-      <c r="A158">
-        <v>68</v>
-      </c>
-      <c r="B158" t="s">
-        <v>11</v>
-      </c>
-      <c r="C158" t="s">
-        <v>15</v>
-      </c>
-      <c r="D158" t="s">
-        <v>16</v>
-      </c>
-      <c r="E158">
-        <v>202.142</v>
-      </c>
-      <c r="F158">
-        <v>57.62363496639065</v>
-      </c>
-      <c r="G158">
-        <v>449.4838266309315</v>
-      </c>
-      <c r="H158">
-        <v>2182.591225957503</v>
-      </c>
-      <c r="I158">
-        <v>1851.009402197643</v>
-      </c>
-      <c r="J158">
-        <v>-285.1401923694319</v>
-      </c>
-      <c r="K158">
-        <v>-2354.570873776165</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11">
-      <c r="A159">
-        <v>68</v>
-      </c>
-      <c r="B159" t="s">
-        <v>11</v>
-      </c>
-      <c r="C159" t="s">
-        <v>15</v>
-      </c>
-      <c r="D159" t="s">
-        <v>16</v>
-      </c>
-      <c r="E159">
-        <v>203.142</v>
-      </c>
-      <c r="F159">
-        <v>56.96522675918697</v>
-      </c>
-      <c r="G159">
-        <v>461.650420474391</v>
-      </c>
-      <c r="H159">
-        <v>2190.221637018048</v>
-      </c>
-      <c r="I159">
-        <v>1987.443164284399</v>
-      </c>
-      <c r="J159">
-        <v>-317.2095023069927</v>
-      </c>
-      <c r="K159">
-        <v>-2671.773816896291</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11">
-      <c r="A160">
-        <v>68</v>
-      </c>
-      <c r="B160" t="s">
-        <v>11</v>
-      </c>
-      <c r="C160" t="s">
-        <v>15</v>
-      </c>
-      <c r="D160" t="s">
-        <v>16</v>
-      </c>
-      <c r="E160">
-        <v>204.142</v>
-      </c>
-      <c r="F160">
-        <v>56.3288801274321</v>
-      </c>
-      <c r="G160">
-        <v>473.8170143178505</v>
-      </c>
-      <c r="H160">
-        <v>2197.680796659955</v>
-      </c>
-      <c r="I160">
-        <v>2127.236482245784</v>
-      </c>
-      <c r="J160">
-        <v>-349.2788122445538</v>
-      </c>
-      <c r="K160">
-        <v>-2999.569368865228</v>
+        <v>3980078.546644083</v>
       </c>
     </row>
   </sheetData>
